--- a/firebase_data_from_spyEnsembleVMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="704">
   <si>
     <t>date</t>
   </si>
@@ -1706,6 +1706,12 @@
   </si>
   <si>
     <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2477,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H558"/>
+  <dimension ref="A1:H560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2529,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2555,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2581,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2607,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2633,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2659,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2685,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2711,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2737,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2763,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2789,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2815,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2841,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2867,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2893,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2919,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2945,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2971,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2997,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3023,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3049,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3075,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3101,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3127,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3153,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3179,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3205,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3231,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3257,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3283,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3309,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3335,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3361,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3387,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3413,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3439,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3465,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3491,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3517,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3543,7 +3549,7 @@
         <v>0.6652095861188768</v>
       </c>
       <c r="H41" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3569,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3595,7 +3601,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3621,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3647,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3673,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3699,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3725,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3751,7 +3757,7 @@
         <v>0.4222566633594932</v>
       </c>
       <c r="H49" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3777,7 +3783,7 @@
         <v>0.3440070648646488</v>
       </c>
       <c r="H50" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3803,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3829,7 +3835,7 @@
         <v>0.8523116440983681</v>
       </c>
       <c r="H52" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3855,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3881,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3907,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3933,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3959,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3985,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4011,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4037,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4063,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4089,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4115,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4141,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4167,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4193,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4219,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4245,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4271,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4297,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4323,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4349,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4375,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4401,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4427,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4453,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4479,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4505,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4531,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4557,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4583,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4609,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4635,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4661,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4687,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4713,7 +4719,7 @@
         <v>0.4179768592232786</v>
       </c>
       <c r="H86" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4739,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4765,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4791,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4817,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4843,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4869,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4895,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4921,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4947,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4973,7 +4979,7 @@
         <v>0.1140623709156511</v>
       </c>
       <c r="H96" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4999,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5025,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5051,7 +5057,7 @@
         <v>0.8293690678030022</v>
       </c>
       <c r="H99" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5077,7 +5083,7 @@
         <v>0.2356985566211993</v>
       </c>
       <c r="H100" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5103,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5129,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5155,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5181,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5207,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5233,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5259,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5285,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5311,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5337,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5363,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5389,7 +5395,7 @@
         <v>0.3082366448627037</v>
       </c>
       <c r="H112" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5415,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5441,7 +5447,7 @@
         <v>0.4161611916204381</v>
       </c>
       <c r="H114" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5467,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5493,7 +5499,7 @@
         <v>0.48338117245219</v>
       </c>
       <c r="H116" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5519,7 +5525,7 @@
         <v>0.7049284912729519</v>
       </c>
       <c r="H117" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5545,7 +5551,7 @@
         <v>0.7244285956328683</v>
       </c>
       <c r="H118" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5571,7 +5577,7 @@
         <v>0.6609704165283956</v>
       </c>
       <c r="H119" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5597,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5623,7 +5629,7 @@
         <v>0.599413193990422</v>
       </c>
       <c r="H121" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5649,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5675,7 +5681,7 @@
         <v>0.7424401441936317</v>
       </c>
       <c r="H123" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5701,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5727,7 +5733,7 @@
         <v>0.6384608020844242</v>
       </c>
       <c r="H125" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5753,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5779,7 +5785,7 @@
         <v>0.5253817779376445</v>
       </c>
       <c r="H127" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5805,7 +5811,7 @@
         <v>0.4579419670903924</v>
       </c>
       <c r="H128" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5831,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5857,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5883,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5909,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5935,7 +5941,7 @@
         <v>0.5403720175322594</v>
       </c>
       <c r="H133" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5961,7 +5967,7 @@
         <v>0.5377406223669856</v>
       </c>
       <c r="H134" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5987,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6013,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6039,7 +6045,7 @@
         <v>0.8481029371136733</v>
       </c>
       <c r="H137" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6065,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6091,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6117,7 +6123,7 @@
         <v>0.8896955436959773</v>
       </c>
       <c r="H140" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6143,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6169,7 +6175,7 @@
         <v>0.8955042259693191</v>
       </c>
       <c r="H142" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6195,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6221,7 +6227,7 @@
         <v>0.5383249406265662</v>
       </c>
       <c r="H144" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6247,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6273,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6299,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6325,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6351,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6377,7 +6383,7 @@
         <v>0.4330640552851407</v>
       </c>
       <c r="H150" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6403,7 +6409,7 @@
         <v>0.4479995596700869</v>
       </c>
       <c r="H151" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6429,7 +6435,7 @@
         <v>0.3962385485756822</v>
       </c>
       <c r="H152" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6455,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6481,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6507,7 +6513,7 @@
         <v>0.3812240410545433</v>
       </c>
       <c r="H155" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6533,7 +6539,7 @@
         <v>0.9612505170178242</v>
       </c>
       <c r="H156" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6559,7 +6565,7 @@
         <v>0.9931495088507237</v>
       </c>
       <c r="H157" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6585,7 +6591,7 @@
         <v>0.4014855998279252</v>
       </c>
       <c r="H158" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6611,7 +6617,7 @@
         <v>0.357014503569605</v>
       </c>
       <c r="H159" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6637,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6663,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6689,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6715,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6741,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6767,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6793,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6819,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6845,7 +6851,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6871,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6897,7 +6903,7 @@
         <v>0.4669644694328677</v>
       </c>
       <c r="H170" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6923,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6949,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6975,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7001,7 +7007,7 @@
         <v>0.369760062355653</v>
       </c>
       <c r="H174" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7027,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7053,7 +7059,7 @@
         <v>0.3803214713243249</v>
       </c>
       <c r="H176" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7079,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7105,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7131,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7157,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7183,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7209,7 +7215,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7235,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7261,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7287,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7313,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7339,7 +7345,7 @@
         <v>0.4196524634891488</v>
       </c>
       <c r="H187" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7365,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7391,7 +7397,7 @@
         <v>0.3711118634882204</v>
       </c>
       <c r="H189" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7417,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7443,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7469,7 +7475,7 @@
         <v>0.3543990793245781</v>
       </c>
       <c r="H192" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7495,7 +7501,7 @@
         <v>0.4445849258112983</v>
       </c>
       <c r="H193" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7521,7 +7527,7 @@
         <v>0.3107578981236278</v>
       </c>
       <c r="H194" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7547,7 +7553,7 @@
         <v>0.9122767935971949</v>
       </c>
       <c r="H195" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7573,7 +7579,7 @@
         <v>0.278330358706896</v>
       </c>
       <c r="H196" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7599,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7625,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7651,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7677,7 +7683,7 @@
         <v>0.2423882114940517</v>
       </c>
       <c r="H200" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7703,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7729,7 +7735,7 @@
         <v>0.2649264638711551</v>
       </c>
       <c r="H202" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7755,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7781,7 +7787,7 @@
         <v>0.1541600795562838</v>
       </c>
       <c r="H204" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7807,7 +7813,7 @@
         <v>0.2814039318302521</v>
       </c>
       <c r="H205" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7833,7 +7839,7 @@
         <v>0.2383227719999503</v>
       </c>
       <c r="H206" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7859,7 +7865,7 @@
         <v>0.2118041217404628</v>
       </c>
       <c r="H207" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7885,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7911,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7937,7 +7943,7 @@
         <v>0.2887852613707825</v>
       </c>
       <c r="H210" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7963,7 +7969,7 @@
         <v>0.2971863604950572</v>
       </c>
       <c r="H211" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7989,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8015,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8041,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8067,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8093,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8119,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8145,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8171,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8197,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8223,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8249,7 +8255,7 @@
         <v>0.7949641634474602</v>
       </c>
       <c r="H222" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8275,7 +8281,7 @@
         <v>0.3522392764960742</v>
       </c>
       <c r="H223" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8301,7 +8307,7 @@
         <v>0.2642901094249301</v>
       </c>
       <c r="H224" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8327,7 +8333,7 @@
         <v>0.106840158616674</v>
       </c>
       <c r="H225" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8353,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8379,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8405,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8431,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8457,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8483,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8509,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8535,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8561,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8587,7 +8593,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8613,7 +8619,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8639,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8665,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8691,7 +8697,7 @@
         <v>0.8415967808471801</v>
       </c>
       <c r="H239" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8717,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8743,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8769,7 +8775,7 @@
         <v>0.9647890982341863</v>
       </c>
       <c r="H242" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8795,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8821,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8847,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8873,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8899,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8925,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8951,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8977,7 +8983,7 @@
         <v>0.9997181797409398</v>
       </c>
       <c r="H250" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9003,7 +9009,7 @@
         <v>0.4931226748251689</v>
       </c>
       <c r="H251" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9029,7 +9035,7 @@
         <v>0.5315358428587562</v>
       </c>
       <c r="H252" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9055,7 +9061,7 @@
         <v>0.343803338192062</v>
       </c>
       <c r="H253" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9081,7 +9087,7 @@
         <v>0.5332753000129904</v>
       </c>
       <c r="H254" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9107,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9133,7 +9139,7 @@
         <v>0.6311181946878182</v>
       </c>
       <c r="H256" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9159,7 +9165,7 @@
         <v>0.4410547254046209</v>
       </c>
       <c r="H257" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9185,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9211,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9237,7 +9243,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9263,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9289,7 +9295,7 @@
         <v>0.2104246223539617</v>
       </c>
       <c r="H262" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9315,7 +9321,7 @@
         <v>0.4319808249175842</v>
       </c>
       <c r="H263" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9341,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9367,7 +9373,7 @@
         <v>0.8250228427032021</v>
       </c>
       <c r="H265" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9393,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9419,7 +9425,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9445,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9471,7 +9477,7 @@
         <v>0.4823712957831672</v>
       </c>
       <c r="H269" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9497,7 +9503,7 @@
         <v>0.5013651840847415</v>
       </c>
       <c r="H270" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9523,7 +9529,7 @@
         <v>0.5259010732144902</v>
       </c>
       <c r="H271" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9549,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9575,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9601,7 +9607,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9627,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9653,7 +9659,7 @@
         <v>0.5535016427540128</v>
       </c>
       <c r="H276" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9679,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9705,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9731,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9757,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9783,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9809,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9835,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9861,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9887,7 +9893,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9913,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9939,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9965,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9991,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10017,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10043,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10069,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10095,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10121,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10147,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10173,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10199,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10225,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10251,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10277,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10303,7 +10309,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10329,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10355,7 +10361,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10381,7 +10387,7 @@
         <v>0.3376314558978491</v>
       </c>
       <c r="H304" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10407,7 +10413,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10433,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10459,7 +10465,7 @@
         <v>0.1764760910484507</v>
       </c>
       <c r="H307" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10485,7 +10491,7 @@
         <v>0.2811629796273197</v>
       </c>
       <c r="H308" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10511,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10537,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10563,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10589,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10615,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10641,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10667,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10693,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10719,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10745,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="H318" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10771,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10797,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10823,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10849,7 +10855,7 @@
         <v>0.6413358221217301</v>
       </c>
       <c r="H322" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10875,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10901,7 +10907,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10927,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10953,7 +10959,7 @@
         <v>0.8846406422673616</v>
       </c>
       <c r="H326" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10979,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11005,7 +11011,7 @@
         <v>0.3144324559994279</v>
       </c>
       <c r="H328" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11031,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11057,7 +11063,7 @@
         <v>0.05571844083068698</v>
       </c>
       <c r="H330" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11083,7 +11089,7 @@
         <v>0.9337348607178408</v>
       </c>
       <c r="H331" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11109,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11135,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11161,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11187,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11213,7 +11219,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11239,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11265,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11291,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11317,7 +11323,7 @@
         <v>0.5945790081699517</v>
       </c>
       <c r="H340" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11343,7 +11349,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11369,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11395,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11421,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11447,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11473,7 +11479,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11499,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11525,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11551,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11577,7 +11583,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11603,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11629,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11655,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11681,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11707,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11733,7 +11739,7 @@
         <v>0.3717170708755477</v>
       </c>
       <c r="H356" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11759,7 +11765,7 @@
         <v>0.4989016217280365</v>
       </c>
       <c r="H357" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11785,7 +11791,7 @@
         <v>0.5706375727459472</v>
       </c>
       <c r="H358" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11811,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11837,7 +11843,7 @@
         <v>0.4911845609131484</v>
       </c>
       <c r="H360" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11863,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11889,7 +11895,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11915,7 +11921,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11941,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11967,7 +11973,7 @@
         <v>0.3447081393108978</v>
       </c>
       <c r="H365" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11993,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12019,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12045,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12071,7 +12077,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12097,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12123,7 +12129,7 @@
         <v>0.1217574971237919</v>
       </c>
       <c r="H371" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12149,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12175,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12201,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12227,7 +12233,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12253,7 +12259,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12279,7 +12285,7 @@
         <v>0.1203938945679383</v>
       </c>
       <c r="H377" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12305,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12331,7 +12337,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12357,7 +12363,7 @@
         <v>0.358524156083476</v>
       </c>
       <c r="H380" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12383,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12409,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12435,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12461,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12487,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12513,7 +12519,7 @@
         <v>0.6416766170477569</v>
       </c>
       <c r="H386" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12539,7 +12545,7 @@
         <v>0.3977750314809759</v>
       </c>
       <c r="H387" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12565,7 +12571,7 @@
         <v>0.3158360328059265</v>
       </c>
       <c r="H388" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12591,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12617,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12643,7 +12649,7 @@
         <v>0.3260262445464655</v>
       </c>
       <c r="H391" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12669,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12695,7 +12701,7 @@
         <v>0.5726145879495009</v>
       </c>
       <c r="H393" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12721,7 +12727,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12747,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12773,7 +12779,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12799,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12825,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12851,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12877,7 +12883,7 @@
         <v>0.8133198567320822</v>
       </c>
       <c r="H400" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12903,7 +12909,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12929,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12955,7 +12961,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12981,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13007,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13033,7 +13039,7 @@
         <v>0.6298940484709741</v>
       </c>
       <c r="H406" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13059,7 +13065,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13085,7 +13091,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13111,7 +13117,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13137,7 +13143,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13163,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13189,7 +13195,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13215,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13241,7 +13247,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13267,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13293,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13319,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13345,7 +13351,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13371,7 +13377,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13397,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13423,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13449,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13475,7 +13481,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13501,7 +13507,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13527,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13553,7 +13559,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13579,7 +13585,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13605,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13631,7 +13637,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13657,7 +13663,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13683,7 +13689,7 @@
         <v>0.5619881121198708</v>
       </c>
       <c r="H431" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13709,7 +13715,7 @@
         <v>0.6587745533122668</v>
       </c>
       <c r="H432" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13735,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13761,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13787,7 +13793,7 @@
         <v>0.8228669086505156</v>
       </c>
       <c r="H435" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13813,7 +13819,7 @@
         <v>0.6713954248795634</v>
       </c>
       <c r="H436" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13839,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13865,7 +13871,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13891,7 +13897,7 @@
         <v>0.4219056650764679</v>
       </c>
       <c r="H439" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13917,7 +13923,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13943,7 +13949,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13969,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13995,7 +14001,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14021,7 +14027,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14047,7 +14053,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14073,7 +14079,7 @@
         <v>0.2603832727848864</v>
       </c>
       <c r="H446" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14099,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14125,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14151,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14177,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14203,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14229,7 +14235,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14255,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14281,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14307,7 +14313,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14333,7 +14339,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14359,7 +14365,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14385,7 +14391,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14411,7 +14417,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14437,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14463,7 +14469,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14489,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14515,7 +14521,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14541,7 +14547,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14567,7 +14573,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14593,7 +14599,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14619,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14645,7 +14651,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14671,7 +14677,7 @@
         <v>0.4689592796249654</v>
       </c>
       <c r="H469" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14697,7 +14703,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14723,7 +14729,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14749,7 +14755,7 @@
         <v>0.7010813448510317</v>
       </c>
       <c r="H472" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14775,7 +14781,7 @@
         <v>0.6911690110600966</v>
       </c>
       <c r="H473" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14801,7 +14807,7 @@
         <v>0.1270575830564206</v>
       </c>
       <c r="H474" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14827,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14853,7 +14859,7 @@
         <v>0.5600077092249968</v>
       </c>
       <c r="H476" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14879,7 +14885,7 @@
         <v>0.6030185016589187</v>
       </c>
       <c r="H477" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14905,7 +14911,7 @@
         <v>0.5718632809526268</v>
       </c>
       <c r="H478" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14931,7 +14937,7 @@
         <v>0.6163277572292777</v>
       </c>
       <c r="H479" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14957,7 +14963,7 @@
         <v>0.2327463766606628</v>
       </c>
       <c r="H480" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14983,7 +14989,7 @@
         <v>0.2069174561332703</v>
       </c>
       <c r="H481" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15009,7 +15015,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15035,7 +15041,7 @@
         <v>0.4752334335783372</v>
       </c>
       <c r="H483" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15061,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15087,7 +15093,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15113,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15139,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15165,7 +15171,7 @@
         <v>0.4978072926054999</v>
       </c>
       <c r="H488" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15191,7 +15197,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15217,7 +15223,7 @@
         <v>0.4639476994952043</v>
       </c>
       <c r="H490" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15243,7 +15249,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15269,7 +15275,7 @@
         <v>0.478921584970792</v>
       </c>
       <c r="H492" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15295,7 +15301,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15321,7 +15327,7 @@
         <v>0.1831215359215634</v>
       </c>
       <c r="H494" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15347,7 +15353,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15373,7 +15379,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15399,7 +15405,7 @@
         <v>0.6275101125852033</v>
       </c>
       <c r="H497" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15425,7 +15431,7 @@
         <v>0.5045670331463042</v>
       </c>
       <c r="H498" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15451,7 +15457,7 @@
         <v>0.2950710267922264</v>
       </c>
       <c r="H499" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15477,7 +15483,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15503,7 +15509,7 @@
         <v>0.4559195411610155</v>
       </c>
       <c r="H501" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15529,7 +15535,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15555,7 +15561,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15581,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15607,7 +15613,7 @@
         <v>0.516013836386785</v>
       </c>
       <c r="H505" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15633,7 +15639,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15659,7 +15665,7 @@
         <v>0.462236171452474</v>
       </c>
       <c r="H507" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15685,7 +15691,7 @@
         <v>0.7456598259921183</v>
       </c>
       <c r="H508" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15711,7 +15717,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15737,7 +15743,7 @@
         <v>0.3532573073452195</v>
       </c>
       <c r="H510" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15763,7 +15769,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15789,7 +15795,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15815,7 +15821,7 @@
         <v>0.1798070557178069</v>
       </c>
       <c r="H513" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15841,7 +15847,7 @@
         <v>0.473447195088708</v>
       </c>
       <c r="H514" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15867,7 +15873,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15893,7 +15899,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15919,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15945,7 +15951,7 @@
         <v>0.8204384144051942</v>
       </c>
       <c r="H518" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15971,7 +15977,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15997,7 +16003,7 @@
         <v>0.4195530669078708</v>
       </c>
       <c r="H520" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16023,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16049,7 +16055,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16075,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16101,7 +16107,7 @@
         <v>0.2764144596889772</v>
       </c>
       <c r="H524" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16127,7 +16133,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16153,7 +16159,7 @@
         <v>0.4749683932757557</v>
       </c>
       <c r="H526" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16179,7 +16185,7 @@
         <v>0.4652361476393417</v>
       </c>
       <c r="H527" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16205,7 +16211,7 @@
         <v>0.4173692271411316</v>
       </c>
       <c r="H528" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16231,7 +16237,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16257,7 +16263,7 @@
         <v>0.4698999999999999</v>
       </c>
       <c r="H530" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16283,7 +16289,7 @@
         <v>0.5113</v>
       </c>
       <c r="H531" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16309,7 +16315,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16335,7 +16341,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16361,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16387,7 +16393,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16413,7 +16419,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16439,7 +16445,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16465,7 +16471,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16491,7 +16497,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16517,7 +16523,7 @@
         <v>0.5608</v>
       </c>
       <c r="H540" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16543,7 +16549,7 @@
         <v>0.6167</v>
       </c>
       <c r="H541" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16569,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16595,7 +16601,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16621,7 +16627,7 @@
         <v>1</v>
       </c>
       <c r="H544" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16647,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16673,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16699,7 +16705,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16725,7 +16731,7 @@
         <v>0.7048000000000001</v>
       </c>
       <c r="H548" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16751,7 +16757,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16777,7 +16783,7 @@
         <v>1</v>
       </c>
       <c r="H550" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16803,7 +16809,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16829,7 +16835,7 @@
         <v>1</v>
       </c>
       <c r="H552" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16855,7 +16861,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16881,7 +16887,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16907,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16933,7 +16939,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16959,7 +16965,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16969,9 +16975,15 @@
       <c r="B558" t="s">
         <v>563</v>
       </c>
+      <c r="C558">
+        <v>0</v>
+      </c>
       <c r="D558">
         <v>1</v>
       </c>
+      <c r="E558">
+        <v>0</v>
+      </c>
       <c r="F558">
         <v>0</v>
       </c>
@@ -16979,7 +16991,53 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" t="s">
+        <v>564</v>
+      </c>
+      <c r="C559">
+        <v>0</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+      <c r="E559">
+        <v>0</v>
+      </c>
+      <c r="F559">
+        <v>0</v>
+      </c>
+      <c r="G559">
+        <v>1</v>
+      </c>
+      <c r="H559" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" t="s">
         <v>565</v>
+      </c>
+      <c r="D560">
+        <v>0</v>
+      </c>
+      <c r="F560">
+        <v>1</v>
+      </c>
+      <c r="G560">
+        <v>0</v>
+      </c>
+      <c r="H560" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="708">
   <si>
     <t>date</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2489,7 +2495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2541,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2567,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2593,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2619,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2645,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2671,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2697,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2723,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2749,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2775,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2801,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2827,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2853,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2879,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2905,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2931,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2957,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2983,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3009,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3035,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3061,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3087,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3113,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3139,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3165,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3191,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3217,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3243,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3269,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3295,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3321,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3347,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3373,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3399,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3425,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3451,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3477,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3503,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3529,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3555,7 +3561,7 @@
         <v>0.6652095861188768</v>
       </c>
       <c r="H41" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3581,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3607,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3633,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3659,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3685,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3711,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3737,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3763,7 +3769,7 @@
         <v>0.4222566633594932</v>
       </c>
       <c r="H49" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3789,7 +3795,7 @@
         <v>0.3440070648646488</v>
       </c>
       <c r="H50" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3815,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3841,7 +3847,7 @@
         <v>0.8523116440983681</v>
       </c>
       <c r="H52" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3867,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3893,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3919,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3945,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3971,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3997,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4023,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4049,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4075,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4101,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4127,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4153,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4179,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4205,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4231,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4257,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4283,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4309,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4335,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4361,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4387,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4413,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4439,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4465,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4491,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4517,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4543,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4569,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4595,7 +4601,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4621,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4647,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4673,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4699,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4725,7 +4731,7 @@
         <v>0.4179768592232786</v>
       </c>
       <c r="H86" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4751,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4777,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4803,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4829,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4855,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4881,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4907,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4933,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4959,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4985,7 +4991,7 @@
         <v>0.1140623709156511</v>
       </c>
       <c r="H96" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5011,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5037,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5063,7 +5069,7 @@
         <v>0.8293690678030022</v>
       </c>
       <c r="H99" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5089,7 +5095,7 @@
         <v>0.2356985566211993</v>
       </c>
       <c r="H100" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5115,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5141,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5167,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5193,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5219,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5245,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5271,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5297,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5323,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5349,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5375,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5401,7 +5407,7 @@
         <v>0.3082366448627037</v>
       </c>
       <c r="H112" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5427,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5453,7 +5459,7 @@
         <v>0.4161611916204381</v>
       </c>
       <c r="H114" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5479,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5505,7 +5511,7 @@
         <v>0.48338117245219</v>
       </c>
       <c r="H116" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5531,7 +5537,7 @@
         <v>0.7049284912729519</v>
       </c>
       <c r="H117" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5557,7 +5563,7 @@
         <v>0.7244285956328683</v>
       </c>
       <c r="H118" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5583,7 +5589,7 @@
         <v>0.6609704165283956</v>
       </c>
       <c r="H119" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5609,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5635,7 +5641,7 @@
         <v>0.599413193990422</v>
       </c>
       <c r="H121" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5661,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5687,7 +5693,7 @@
         <v>0.7424401441936317</v>
       </c>
       <c r="H123" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5713,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5739,7 +5745,7 @@
         <v>0.6384608020844242</v>
       </c>
       <c r="H125" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5765,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5791,7 +5797,7 @@
         <v>0.5253817779376445</v>
       </c>
       <c r="H127" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5817,7 +5823,7 @@
         <v>0.4579419670903924</v>
       </c>
       <c r="H128" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5843,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5869,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5895,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5921,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5947,7 +5953,7 @@
         <v>0.5403720175322594</v>
       </c>
       <c r="H133" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5973,7 +5979,7 @@
         <v>0.5377406223669856</v>
       </c>
       <c r="H134" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5999,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6025,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6051,7 +6057,7 @@
         <v>0.8481029371136733</v>
       </c>
       <c r="H137" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6077,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6103,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6129,7 +6135,7 @@
         <v>0.8896955436959773</v>
       </c>
       <c r="H140" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6155,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6181,7 +6187,7 @@
         <v>0.8955042259693191</v>
       </c>
       <c r="H142" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6207,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6233,7 +6239,7 @@
         <v>0.5383249406265662</v>
       </c>
       <c r="H144" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6259,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6285,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6311,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6337,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6363,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6389,7 +6395,7 @@
         <v>0.4330640552851407</v>
       </c>
       <c r="H150" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6415,7 +6421,7 @@
         <v>0.4479995596700869</v>
       </c>
       <c r="H151" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6441,7 +6447,7 @@
         <v>0.3962385485756822</v>
       </c>
       <c r="H152" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6467,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6493,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6519,7 +6525,7 @@
         <v>0.3812240410545433</v>
       </c>
       <c r="H155" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6545,7 +6551,7 @@
         <v>0.9612505170178242</v>
       </c>
       <c r="H156" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6571,7 +6577,7 @@
         <v>0.9931495088507237</v>
       </c>
       <c r="H157" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6597,7 +6603,7 @@
         <v>0.4014855998279252</v>
       </c>
       <c r="H158" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6623,7 +6629,7 @@
         <v>0.357014503569605</v>
       </c>
       <c r="H159" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6649,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6675,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6701,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6727,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6753,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6779,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6805,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6831,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6857,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6883,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6909,7 +6915,7 @@
         <v>0.4669644694328677</v>
       </c>
       <c r="H170" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6935,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6961,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6987,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7013,7 +7019,7 @@
         <v>0.369760062355653</v>
       </c>
       <c r="H174" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7039,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7065,7 +7071,7 @@
         <v>0.3803214713243249</v>
       </c>
       <c r="H176" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7091,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7117,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7143,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7169,7 +7175,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7195,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7221,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7247,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7273,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7299,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7325,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7351,7 +7357,7 @@
         <v>0.4196524634891488</v>
       </c>
       <c r="H187" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7377,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7403,7 +7409,7 @@
         <v>0.3711118634882204</v>
       </c>
       <c r="H189" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7429,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7455,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7481,7 +7487,7 @@
         <v>0.3543990793245781</v>
       </c>
       <c r="H192" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7507,7 +7513,7 @@
         <v>0.4445849258112983</v>
       </c>
       <c r="H193" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7533,7 +7539,7 @@
         <v>0.3107578981236278</v>
       </c>
       <c r="H194" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7559,7 +7565,7 @@
         <v>0.9122767935971949</v>
       </c>
       <c r="H195" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7585,7 +7591,7 @@
         <v>0.278330358706896</v>
       </c>
       <c r="H196" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7611,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7637,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7663,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7689,7 +7695,7 @@
         <v>0.2423882114940517</v>
       </c>
       <c r="H200" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7715,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7741,7 +7747,7 @@
         <v>0.2649264638711551</v>
       </c>
       <c r="H202" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7767,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7793,7 +7799,7 @@
         <v>0.1541600795562838</v>
       </c>
       <c r="H204" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7819,7 +7825,7 @@
         <v>0.2814039318302521</v>
       </c>
       <c r="H205" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7845,7 +7851,7 @@
         <v>0.2383227719999503</v>
       </c>
       <c r="H206" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7871,7 +7877,7 @@
         <v>0.2118041217404628</v>
       </c>
       <c r="H207" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7897,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7923,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7949,7 +7955,7 @@
         <v>0.2887852613707825</v>
       </c>
       <c r="H210" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7975,7 +7981,7 @@
         <v>0.2971863604950572</v>
       </c>
       <c r="H211" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8001,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8027,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8053,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8079,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8105,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8131,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8157,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8183,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8209,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8235,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8261,7 +8267,7 @@
         <v>0.7949641634474602</v>
       </c>
       <c r="H222" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8287,7 +8293,7 @@
         <v>0.3522392764960742</v>
       </c>
       <c r="H223" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8313,7 +8319,7 @@
         <v>0.2642901094249301</v>
       </c>
       <c r="H224" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8339,7 +8345,7 @@
         <v>0.106840158616674</v>
       </c>
       <c r="H225" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8365,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8391,7 +8397,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8417,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8443,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8469,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8495,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8521,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8547,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8573,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8599,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8625,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8651,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8677,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8703,7 +8709,7 @@
         <v>0.8415967808471801</v>
       </c>
       <c r="H239" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8729,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8755,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8781,7 +8787,7 @@
         <v>0.9647890982341863</v>
       </c>
       <c r="H242" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8807,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8833,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8859,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8885,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8911,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8937,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8963,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8989,7 +8995,7 @@
         <v>0.9997181797409398</v>
       </c>
       <c r="H250" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9015,7 +9021,7 @@
         <v>0.4931226748251689</v>
       </c>
       <c r="H251" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9041,7 +9047,7 @@
         <v>0.5315358428587562</v>
       </c>
       <c r="H252" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9067,7 +9073,7 @@
         <v>0.343803338192062</v>
       </c>
       <c r="H253" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9093,7 +9099,7 @@
         <v>0.5332753000129904</v>
       </c>
       <c r="H254" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9119,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9145,7 +9151,7 @@
         <v>0.6311181946878182</v>
       </c>
       <c r="H256" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9171,7 +9177,7 @@
         <v>0.4410547254046209</v>
       </c>
       <c r="H257" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9197,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9223,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9249,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9275,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9301,7 +9307,7 @@
         <v>0.2104246223539617</v>
       </c>
       <c r="H262" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9327,7 +9333,7 @@
         <v>0.4319808249175842</v>
       </c>
       <c r="H263" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9353,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9379,7 +9385,7 @@
         <v>0.8250228427032021</v>
       </c>
       <c r="H265" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9405,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9431,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9457,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9483,7 +9489,7 @@
         <v>0.4823712957831672</v>
       </c>
       <c r="H269" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9509,7 +9515,7 @@
         <v>0.5013651840847415</v>
       </c>
       <c r="H270" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9535,7 +9541,7 @@
         <v>0.5259010732144902</v>
       </c>
       <c r="H271" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9561,7 +9567,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9587,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9613,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9639,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9665,7 +9671,7 @@
         <v>0.5535016427540128</v>
       </c>
       <c r="H276" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9691,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9717,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9743,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9769,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9795,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9821,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9847,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9873,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9899,7 +9905,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9925,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9951,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9977,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10003,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10029,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10055,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10081,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10107,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10133,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10159,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10185,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10211,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10237,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10263,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10289,7 +10295,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10315,7 +10321,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10341,7 +10347,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10367,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10393,7 +10399,7 @@
         <v>0.3376314558978491</v>
       </c>
       <c r="H304" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10419,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10445,7 +10451,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10471,7 +10477,7 @@
         <v>0.1764760910484507</v>
       </c>
       <c r="H307" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10497,7 +10503,7 @@
         <v>0.2811629796273197</v>
       </c>
       <c r="H308" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10523,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10549,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10575,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10601,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10627,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10653,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10679,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10705,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10731,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10757,7 +10763,7 @@
         <v>1</v>
       </c>
       <c r="H318" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10783,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10809,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10835,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10861,7 +10867,7 @@
         <v>0.6413358221217301</v>
       </c>
       <c r="H322" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10887,7 +10893,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10913,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10939,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10965,7 +10971,7 @@
         <v>0.8846406422673616</v>
       </c>
       <c r="H326" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10991,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11017,7 +11023,7 @@
         <v>0.3144324559994279</v>
       </c>
       <c r="H328" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11043,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11069,7 +11075,7 @@
         <v>0.05571844083068698</v>
       </c>
       <c r="H330" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11095,7 +11101,7 @@
         <v>0.9337348607178408</v>
       </c>
       <c r="H331" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11121,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11147,7 +11153,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11173,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11199,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11225,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11251,7 +11257,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11277,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11303,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11329,7 +11335,7 @@
         <v>0.5945790081699517</v>
       </c>
       <c r="H340" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11355,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11381,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11407,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11433,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11459,7 +11465,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11485,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11511,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11537,7 +11543,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11563,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11589,7 +11595,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11615,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11641,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11667,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11693,7 +11699,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11719,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11745,7 +11751,7 @@
         <v>0.3717170708755477</v>
       </c>
       <c r="H356" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11771,7 +11777,7 @@
         <v>0.4989016217280365</v>
       </c>
       <c r="H357" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11797,7 +11803,7 @@
         <v>0.5706375727459472</v>
       </c>
       <c r="H358" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11823,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11849,7 +11855,7 @@
         <v>0.4911845609131484</v>
       </c>
       <c r="H360" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11875,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11901,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11927,7 +11933,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11953,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11979,7 +11985,7 @@
         <v>0.3447081393108978</v>
       </c>
       <c r="H365" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12005,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12031,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12057,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12083,7 +12089,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12109,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12135,7 +12141,7 @@
         <v>0.1217574971237919</v>
       </c>
       <c r="H371" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12161,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12187,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12213,7 +12219,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12239,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12265,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12291,7 +12297,7 @@
         <v>0.1203938945679383</v>
       </c>
       <c r="H377" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12317,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12343,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12369,7 +12375,7 @@
         <v>0.358524156083476</v>
       </c>
       <c r="H380" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12395,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12421,7 +12427,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12447,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12473,7 +12479,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12499,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12525,7 +12531,7 @@
         <v>0.6416766170477569</v>
       </c>
       <c r="H386" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12551,7 +12557,7 @@
         <v>0.3977750314809759</v>
       </c>
       <c r="H387" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12577,7 +12583,7 @@
         <v>0.3158360328059265</v>
       </c>
       <c r="H388" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12603,7 +12609,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12629,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12655,7 +12661,7 @@
         <v>0.3260262445464655</v>
       </c>
       <c r="H391" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12681,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12707,7 +12713,7 @@
         <v>0.5726145879495009</v>
       </c>
       <c r="H393" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12733,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12759,7 +12765,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12785,7 +12791,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12811,7 +12817,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12837,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12863,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12889,7 +12895,7 @@
         <v>0.8133198567320822</v>
       </c>
       <c r="H400" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12915,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12941,7 +12947,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12967,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12993,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13019,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13045,7 +13051,7 @@
         <v>0.6298940484709741</v>
       </c>
       <c r="H406" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13071,7 +13077,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13097,7 +13103,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13123,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13149,7 +13155,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13175,7 +13181,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13201,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13227,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13253,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13279,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13305,7 +13311,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13331,7 +13337,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13357,7 +13363,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13383,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13409,7 +13415,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13435,7 +13441,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13461,7 +13467,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13487,7 +13493,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13513,7 +13519,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13539,7 +13545,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13565,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13591,7 +13597,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13617,7 +13623,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13643,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13669,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13695,7 +13701,7 @@
         <v>0.5619881121198708</v>
       </c>
       <c r="H431" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13721,7 +13727,7 @@
         <v>0.6587745533122668</v>
       </c>
       <c r="H432" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13747,7 +13753,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13773,7 +13779,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13799,7 +13805,7 @@
         <v>0.8228669086505156</v>
       </c>
       <c r="H435" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13825,7 +13831,7 @@
         <v>0.6713954248795634</v>
       </c>
       <c r="H436" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13851,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13877,7 +13883,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13903,7 +13909,7 @@
         <v>0.4219056650764679</v>
       </c>
       <c r="H439" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13929,7 +13935,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13955,7 +13961,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13981,7 +13987,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14007,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14033,7 +14039,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14059,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14085,7 +14091,7 @@
         <v>0.2603832727848864</v>
       </c>
       <c r="H446" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14111,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14137,7 +14143,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14163,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14189,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14215,7 +14221,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14241,7 +14247,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14267,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14293,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14319,7 +14325,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14345,7 +14351,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14371,7 +14377,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14397,7 +14403,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14423,7 +14429,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14449,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14475,7 +14481,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14501,7 +14507,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14527,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14553,7 +14559,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14579,7 +14585,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14605,7 +14611,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14631,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14657,7 +14663,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14683,7 +14689,7 @@
         <v>0.4689592796249654</v>
       </c>
       <c r="H469" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14709,7 +14715,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14735,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14761,7 +14767,7 @@
         <v>0.7010813448510317</v>
       </c>
       <c r="H472" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14787,7 +14793,7 @@
         <v>0.6911690110600966</v>
       </c>
       <c r="H473" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14813,7 +14819,7 @@
         <v>0.1270575830564206</v>
       </c>
       <c r="H474" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14839,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14865,7 +14871,7 @@
         <v>0.5600077092249968</v>
       </c>
       <c r="H476" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14891,7 +14897,7 @@
         <v>0.6030185016589187</v>
       </c>
       <c r="H477" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14917,7 +14923,7 @@
         <v>0.5718632809526268</v>
       </c>
       <c r="H478" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14943,7 +14949,7 @@
         <v>0.6163277572292777</v>
       </c>
       <c r="H479" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14969,7 +14975,7 @@
         <v>0.2327463766606628</v>
       </c>
       <c r="H480" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14995,7 +15001,7 @@
         <v>0.2069174561332703</v>
       </c>
       <c r="H481" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15021,7 +15027,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15047,7 +15053,7 @@
         <v>0.4752334335783372</v>
       </c>
       <c r="H483" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15073,7 +15079,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15099,7 +15105,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15125,7 +15131,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15151,7 +15157,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15177,7 +15183,7 @@
         <v>0.4978072926054999</v>
       </c>
       <c r="H488" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15203,7 +15209,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15229,7 +15235,7 @@
         <v>0.4639476994952043</v>
       </c>
       <c r="H490" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15255,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15281,7 +15287,7 @@
         <v>0.478921584970792</v>
       </c>
       <c r="H492" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15307,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15333,7 +15339,7 @@
         <v>0.1831215359215634</v>
       </c>
       <c r="H494" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15359,7 +15365,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15385,7 +15391,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15411,7 +15417,7 @@
         <v>0.6275101125852033</v>
       </c>
       <c r="H497" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15437,7 +15443,7 @@
         <v>0.5045670331463042</v>
       </c>
       <c r="H498" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15463,7 +15469,7 @@
         <v>0.2950710267922264</v>
       </c>
       <c r="H499" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15489,7 +15495,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15515,7 +15521,7 @@
         <v>0.4559195411610155</v>
       </c>
       <c r="H501" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15541,7 +15547,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15567,7 +15573,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15593,7 +15599,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15619,7 +15625,7 @@
         <v>0.516013836386785</v>
       </c>
       <c r="H505" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15645,7 +15651,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15671,7 +15677,7 @@
         <v>0.462236171452474</v>
       </c>
       <c r="H507" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15697,7 +15703,7 @@
         <v>0.7456598259921183</v>
       </c>
       <c r="H508" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15723,7 +15729,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15749,7 +15755,7 @@
         <v>0.3532573073452195</v>
       </c>
       <c r="H510" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15775,7 +15781,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15801,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15827,7 +15833,7 @@
         <v>0.1798070557178069</v>
       </c>
       <c r="H513" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15853,7 +15859,7 @@
         <v>0.473447195088708</v>
       </c>
       <c r="H514" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15879,7 +15885,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15905,7 +15911,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15931,7 +15937,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15957,7 +15963,7 @@
         <v>0.8204384144051942</v>
       </c>
       <c r="H518" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15983,7 +15989,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16009,7 +16015,7 @@
         <v>0.4195530669078708</v>
       </c>
       <c r="H520" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16035,7 +16041,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16061,7 +16067,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16087,7 +16093,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16113,7 +16119,7 @@
         <v>0.2764144596889772</v>
       </c>
       <c r="H524" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16139,7 +16145,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16165,7 +16171,7 @@
         <v>0.4749683932757557</v>
       </c>
       <c r="H526" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16191,7 +16197,7 @@
         <v>0.4652361476393417</v>
       </c>
       <c r="H527" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16217,7 +16223,7 @@
         <v>0.4173692271411316</v>
       </c>
       <c r="H528" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16243,7 +16249,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16269,7 +16275,7 @@
         <v>0.4698999999999999</v>
       </c>
       <c r="H530" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16295,7 +16301,7 @@
         <v>0.5113</v>
       </c>
       <c r="H531" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16321,7 +16327,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16347,7 +16353,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16373,7 +16379,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16399,7 +16405,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16425,7 +16431,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16451,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16477,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16503,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16529,7 +16535,7 @@
         <v>0.5608</v>
       </c>
       <c r="H540" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16555,7 +16561,7 @@
         <v>0.6167</v>
       </c>
       <c r="H541" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16581,7 +16587,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16607,7 +16613,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16633,7 +16639,7 @@
         <v>1</v>
       </c>
       <c r="H544" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16659,7 +16665,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16685,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16711,7 +16717,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16737,7 +16743,7 @@
         <v>0.7048000000000001</v>
       </c>
       <c r="H548" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16763,7 +16769,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16789,7 +16795,7 @@
         <v>1</v>
       </c>
       <c r="H550" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16815,7 +16821,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16841,7 +16847,7 @@
         <v>1</v>
       </c>
       <c r="H552" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16867,7 +16873,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16893,7 +16899,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16919,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16945,7 +16951,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16971,7 +16977,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16997,7 +17003,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17023,7 +17029,7 @@
         <v>1</v>
       </c>
       <c r="H559" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17049,7 +17055,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17075,7 +17081,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17085,9 +17091,15 @@
       <c r="B562" t="s">
         <v>567</v>
       </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
       <c r="D562">
         <v>1</v>
       </c>
+      <c r="E562">
+        <v>0</v>
+      </c>
       <c r="F562">
         <v>0</v>
       </c>
@@ -17095,7 +17107,53 @@
         <v>1</v>
       </c>
       <c r="H562" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>568</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
+      </c>
+      <c r="E563">
+        <v>1</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+      <c r="G563">
+        <v>1</v>
+      </c>
+      <c r="H563" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
         <v>569</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+      <c r="F564">
+        <v>0</v>
+      </c>
+      <c r="G564">
+        <v>1</v>
+      </c>
+      <c r="H564" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="710">
   <si>
     <t>date</t>
   </si>
@@ -1724,6 +1724,12 @@
   </si>
   <si>
     <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2495,7 +2501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2547,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2573,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2599,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2625,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2651,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2677,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2703,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2729,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2755,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2781,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2807,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2833,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2859,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2885,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2911,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2937,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2963,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2989,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3015,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3041,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3067,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3093,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3119,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3145,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3171,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3197,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3223,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3249,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3275,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3301,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3327,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3353,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3379,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3405,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3431,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3457,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3483,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3509,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3535,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3561,7 +3567,7 @@
         <v>0.6652095861188768</v>
       </c>
       <c r="H41" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3587,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3613,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3639,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3665,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3691,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3717,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3743,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3769,7 +3775,7 @@
         <v>0.4222566633594932</v>
       </c>
       <c r="H49" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3795,7 +3801,7 @@
         <v>0.3440070648646488</v>
       </c>
       <c r="H50" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3821,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3847,7 +3853,7 @@
         <v>0.8523116440983681</v>
       </c>
       <c r="H52" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3873,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3899,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3925,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3951,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3977,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4003,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4029,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4055,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4081,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4107,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4133,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4159,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4185,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4211,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4237,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4263,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4289,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4315,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4341,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4367,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4393,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4419,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4445,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4471,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4497,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4523,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4549,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4575,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4601,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4627,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4653,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4679,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4705,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4731,7 +4737,7 @@
         <v>0.4179768592232786</v>
       </c>
       <c r="H86" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4757,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4783,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4809,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4835,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4861,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4887,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4913,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4939,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4965,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4991,7 +4997,7 @@
         <v>0.1140623709156511</v>
       </c>
       <c r="H96" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5017,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5043,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5069,7 +5075,7 @@
         <v>0.8293690678030022</v>
       </c>
       <c r="H99" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5095,7 +5101,7 @@
         <v>0.2356985566211993</v>
       </c>
       <c r="H100" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5121,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5147,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5173,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5199,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5225,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5251,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5277,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5303,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5329,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5355,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5381,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5407,7 +5413,7 @@
         <v>0.3082366448627037</v>
       </c>
       <c r="H112" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5433,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5459,7 +5465,7 @@
         <v>0.4161611916204381</v>
       </c>
       <c r="H114" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5485,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5511,7 +5517,7 @@
         <v>0.48338117245219</v>
       </c>
       <c r="H116" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5537,7 +5543,7 @@
         <v>0.7049284912729519</v>
       </c>
       <c r="H117" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5563,7 +5569,7 @@
         <v>0.7244285956328683</v>
       </c>
       <c r="H118" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5589,7 +5595,7 @@
         <v>0.6609704165283956</v>
       </c>
       <c r="H119" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5615,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5641,7 +5647,7 @@
         <v>0.599413193990422</v>
       </c>
       <c r="H121" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5667,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5693,7 +5699,7 @@
         <v>0.7424401441936317</v>
       </c>
       <c r="H123" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5719,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5745,7 +5751,7 @@
         <v>0.6384608020844242</v>
       </c>
       <c r="H125" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5771,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5797,7 +5803,7 @@
         <v>0.5253817779376445</v>
       </c>
       <c r="H127" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5823,7 +5829,7 @@
         <v>0.4579419670903924</v>
       </c>
       <c r="H128" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5849,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5875,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5901,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5927,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5953,7 +5959,7 @@
         <v>0.5403720175322594</v>
       </c>
       <c r="H133" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5979,7 +5985,7 @@
         <v>0.5377406223669856</v>
       </c>
       <c r="H134" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6005,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6031,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6057,7 +6063,7 @@
         <v>0.8481029371136733</v>
       </c>
       <c r="H137" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6083,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6109,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6135,7 +6141,7 @@
         <v>0.8896955436959773</v>
       </c>
       <c r="H140" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6161,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6187,7 +6193,7 @@
         <v>0.8955042259693191</v>
       </c>
       <c r="H142" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6213,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6239,7 +6245,7 @@
         <v>0.5383249406265662</v>
       </c>
       <c r="H144" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6265,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6291,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6317,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6343,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6369,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6395,7 +6401,7 @@
         <v>0.4330640552851407</v>
       </c>
       <c r="H150" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6421,7 +6427,7 @@
         <v>0.4479995596700869</v>
       </c>
       <c r="H151" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6447,7 +6453,7 @@
         <v>0.3962385485756822</v>
       </c>
       <c r="H152" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6473,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6499,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6525,7 +6531,7 @@
         <v>0.3812240410545433</v>
       </c>
       <c r="H155" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6551,7 +6557,7 @@
         <v>0.9612505170178242</v>
       </c>
       <c r="H156" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6577,7 +6583,7 @@
         <v>0.9931495088507237</v>
       </c>
       <c r="H157" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6603,7 +6609,7 @@
         <v>0.4014855998279252</v>
       </c>
       <c r="H158" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6629,7 +6635,7 @@
         <v>0.357014503569605</v>
       </c>
       <c r="H159" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6655,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6681,7 +6687,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6707,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6733,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6759,7 +6765,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6785,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6811,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6837,7 +6843,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6863,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6889,7 +6895,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6915,7 +6921,7 @@
         <v>0.4669644694328677</v>
       </c>
       <c r="H170" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6941,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6967,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6993,7 +6999,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7019,7 +7025,7 @@
         <v>0.369760062355653</v>
       </c>
       <c r="H174" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7045,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7071,7 +7077,7 @@
         <v>0.3803214713243249</v>
       </c>
       <c r="H176" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7097,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7123,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7149,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7175,7 +7181,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7201,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7227,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7253,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7279,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7305,7 +7311,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7331,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7357,7 +7363,7 @@
         <v>0.4196524634891488</v>
       </c>
       <c r="H187" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7383,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7409,7 +7415,7 @@
         <v>0.3711118634882204</v>
       </c>
       <c r="H189" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7435,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7461,7 +7467,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7487,7 +7493,7 @@
         <v>0.3543990793245781</v>
       </c>
       <c r="H192" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7513,7 +7519,7 @@
         <v>0.4445849258112983</v>
       </c>
       <c r="H193" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7539,7 +7545,7 @@
         <v>0.3107578981236278</v>
       </c>
       <c r="H194" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7565,7 +7571,7 @@
         <v>0.9122767935971949</v>
       </c>
       <c r="H195" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7591,7 +7597,7 @@
         <v>0.278330358706896</v>
       </c>
       <c r="H196" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7617,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7643,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7669,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7695,7 +7701,7 @@
         <v>0.2423882114940517</v>
       </c>
       <c r="H200" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7721,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7747,7 +7753,7 @@
         <v>0.2649264638711551</v>
       </c>
       <c r="H202" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7773,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7799,7 +7805,7 @@
         <v>0.1541600795562838</v>
       </c>
       <c r="H204" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7825,7 +7831,7 @@
         <v>0.2814039318302521</v>
       </c>
       <c r="H205" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7851,7 +7857,7 @@
         <v>0.2383227719999503</v>
       </c>
       <c r="H206" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7877,7 +7883,7 @@
         <v>0.2118041217404628</v>
       </c>
       <c r="H207" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7903,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7929,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7955,7 +7961,7 @@
         <v>0.2887852613707825</v>
       </c>
       <c r="H210" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7981,7 +7987,7 @@
         <v>0.2971863604950572</v>
       </c>
       <c r="H211" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8007,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8033,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8059,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8085,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8111,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8137,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8163,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8189,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8215,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8241,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8267,7 +8273,7 @@
         <v>0.7949641634474602</v>
       </c>
       <c r="H222" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8293,7 +8299,7 @@
         <v>0.3522392764960742</v>
       </c>
       <c r="H223" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8319,7 +8325,7 @@
         <v>0.2642901094249301</v>
       </c>
       <c r="H224" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8345,7 +8351,7 @@
         <v>0.106840158616674</v>
       </c>
       <c r="H225" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8371,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8397,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8423,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8449,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8475,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8501,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8527,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8553,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8579,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8605,7 +8611,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8631,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8657,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8683,7 +8689,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8709,7 +8715,7 @@
         <v>0.8415967808471801</v>
       </c>
       <c r="H239" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8735,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8761,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8787,7 +8793,7 @@
         <v>0.9647890982341863</v>
       </c>
       <c r="H242" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8813,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8839,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8865,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8891,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8917,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8943,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8969,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8995,7 +9001,7 @@
         <v>0.9997181797409398</v>
       </c>
       <c r="H250" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9021,7 +9027,7 @@
         <v>0.4931226748251689</v>
       </c>
       <c r="H251" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9047,7 +9053,7 @@
         <v>0.5315358428587562</v>
       </c>
       <c r="H252" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9073,7 +9079,7 @@
         <v>0.343803338192062</v>
       </c>
       <c r="H253" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9099,7 +9105,7 @@
         <v>0.5332753000129904</v>
       </c>
       <c r="H254" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9125,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9151,7 +9157,7 @@
         <v>0.6311181946878182</v>
       </c>
       <c r="H256" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9177,7 +9183,7 @@
         <v>0.4410547254046209</v>
       </c>
       <c r="H257" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9203,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9229,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9255,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9281,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9307,7 +9313,7 @@
         <v>0.2104246223539617</v>
       </c>
       <c r="H262" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9333,7 +9339,7 @@
         <v>0.4319808249175842</v>
       </c>
       <c r="H263" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9359,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9385,7 +9391,7 @@
         <v>0.8250228427032021</v>
       </c>
       <c r="H265" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9411,7 +9417,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9437,7 +9443,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9463,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9489,7 +9495,7 @@
         <v>0.4823712957831672</v>
       </c>
       <c r="H269" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9515,7 +9521,7 @@
         <v>0.5013651840847415</v>
       </c>
       <c r="H270" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9541,7 +9547,7 @@
         <v>0.5259010732144902</v>
       </c>
       <c r="H271" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9567,7 +9573,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9593,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9619,7 +9625,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9645,7 +9651,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9671,7 +9677,7 @@
         <v>0.5535016427540128</v>
       </c>
       <c r="H276" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9697,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9723,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9749,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9775,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9801,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9827,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9853,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9879,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9905,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9931,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9957,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9983,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10009,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10035,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10061,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10087,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10113,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10139,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10165,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10191,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10217,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10243,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10269,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10295,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10321,7 +10327,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10347,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10373,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10399,7 +10405,7 @@
         <v>0.3376314558978491</v>
       </c>
       <c r="H304" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10425,7 +10431,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10451,7 +10457,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10477,7 +10483,7 @@
         <v>0.1764760910484507</v>
       </c>
       <c r="H307" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10503,7 +10509,7 @@
         <v>0.2811629796273197</v>
       </c>
       <c r="H308" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10529,7 +10535,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10555,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10581,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10607,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10633,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10659,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10685,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10711,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10737,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10763,7 +10769,7 @@
         <v>1</v>
       </c>
       <c r="H318" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10789,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10815,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10841,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10867,7 +10873,7 @@
         <v>0.6413358221217301</v>
       </c>
       <c r="H322" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10893,7 +10899,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10919,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10945,7 +10951,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10971,7 +10977,7 @@
         <v>0.8846406422673616</v>
       </c>
       <c r="H326" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10997,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11023,7 +11029,7 @@
         <v>0.3144324559994279</v>
       </c>
       <c r="H328" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11049,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11075,7 +11081,7 @@
         <v>0.05571844083068698</v>
       </c>
       <c r="H330" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11101,7 +11107,7 @@
         <v>0.9337348607178408</v>
       </c>
       <c r="H331" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11127,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11153,7 +11159,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11179,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11205,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11231,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11257,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11283,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11309,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11335,7 +11341,7 @@
         <v>0.5945790081699517</v>
       </c>
       <c r="H340" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11361,7 +11367,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11387,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11413,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11439,7 +11445,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11465,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11491,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11517,7 +11523,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11543,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11569,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11595,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11621,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11647,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11673,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11699,7 +11705,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11725,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11751,7 +11757,7 @@
         <v>0.3717170708755477</v>
       </c>
       <c r="H356" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11777,7 +11783,7 @@
         <v>0.4989016217280365</v>
       </c>
       <c r="H357" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11803,7 +11809,7 @@
         <v>0.5706375727459472</v>
       </c>
       <c r="H358" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11829,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11855,7 +11861,7 @@
         <v>0.4911845609131484</v>
       </c>
       <c r="H360" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11881,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11907,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11933,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11959,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11985,7 +11991,7 @@
         <v>0.3447081393108978</v>
       </c>
       <c r="H365" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12011,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12037,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12063,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12089,7 +12095,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12115,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12141,7 +12147,7 @@
         <v>0.1217574971237919</v>
       </c>
       <c r="H371" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12167,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12193,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12219,7 +12225,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12245,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12271,7 +12277,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12297,7 +12303,7 @@
         <v>0.1203938945679383</v>
       </c>
       <c r="H377" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12323,7 +12329,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12349,7 +12355,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12375,7 +12381,7 @@
         <v>0.358524156083476</v>
       </c>
       <c r="H380" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12401,7 +12407,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12427,7 +12433,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12453,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12479,7 +12485,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12505,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12531,7 +12537,7 @@
         <v>0.6416766170477569</v>
       </c>
       <c r="H386" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12557,7 +12563,7 @@
         <v>0.3977750314809759</v>
       </c>
       <c r="H387" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12583,7 +12589,7 @@
         <v>0.3158360328059265</v>
       </c>
       <c r="H388" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12609,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12635,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12661,7 +12667,7 @@
         <v>0.3260262445464655</v>
       </c>
       <c r="H391" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12687,7 +12693,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12713,7 +12719,7 @@
         <v>0.5726145879495009</v>
       </c>
       <c r="H393" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12739,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12765,7 +12771,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12791,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12817,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12843,7 +12849,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12869,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12895,7 +12901,7 @@
         <v>0.8133198567320822</v>
       </c>
       <c r="H400" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12921,7 +12927,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12947,7 +12953,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12973,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12999,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13025,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13051,7 +13057,7 @@
         <v>0.6298940484709741</v>
       </c>
       <c r="H406" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13077,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13103,7 +13109,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13129,7 +13135,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13155,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13181,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13207,7 +13213,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13233,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13259,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13285,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13311,7 +13317,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13337,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13363,7 +13369,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13389,7 +13395,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13415,7 +13421,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13441,7 +13447,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13467,7 +13473,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13493,7 +13499,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13519,7 +13525,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13545,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13571,7 +13577,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13597,7 +13603,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13623,7 +13629,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13649,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13675,7 +13681,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13701,7 +13707,7 @@
         <v>0.5619881121198708</v>
       </c>
       <c r="H431" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13727,7 +13733,7 @@
         <v>0.6587745533122668</v>
       </c>
       <c r="H432" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13753,7 +13759,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13779,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13805,7 +13811,7 @@
         <v>0.8228669086505156</v>
       </c>
       <c r="H435" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13831,7 +13837,7 @@
         <v>0.6713954248795634</v>
       </c>
       <c r="H436" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13857,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13883,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13909,7 +13915,7 @@
         <v>0.4219056650764679</v>
       </c>
       <c r="H439" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13935,7 +13941,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13961,7 +13967,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13987,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14013,7 +14019,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14039,7 +14045,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14065,7 +14071,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14091,7 +14097,7 @@
         <v>0.2603832727848864</v>
       </c>
       <c r="H446" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14117,7 +14123,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14143,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14169,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14195,7 +14201,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14221,7 +14227,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14247,7 +14253,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14273,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14299,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14325,7 +14331,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14351,7 +14357,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14377,7 +14383,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14403,7 +14409,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14429,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14455,7 +14461,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14481,7 +14487,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14507,7 +14513,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14533,7 +14539,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14559,7 +14565,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14585,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14611,7 +14617,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14637,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14663,7 +14669,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14689,7 +14695,7 @@
         <v>0.4689592796249654</v>
       </c>
       <c r="H469" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14715,7 +14721,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14741,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14767,7 +14773,7 @@
         <v>0.7010813448510317</v>
       </c>
       <c r="H472" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14793,7 +14799,7 @@
         <v>0.6911690110600966</v>
       </c>
       <c r="H473" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14819,7 +14825,7 @@
         <v>0.1270575830564206</v>
       </c>
       <c r="H474" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14845,7 +14851,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14871,7 +14877,7 @@
         <v>0.5600077092249968</v>
       </c>
       <c r="H476" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14897,7 +14903,7 @@
         <v>0.6030185016589187</v>
       </c>
       <c r="H477" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14923,7 +14929,7 @@
         <v>0.5718632809526268</v>
       </c>
       <c r="H478" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14949,7 +14955,7 @@
         <v>0.6163277572292777</v>
       </c>
       <c r="H479" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14975,7 +14981,7 @@
         <v>0.2327463766606628</v>
       </c>
       <c r="H480" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15001,7 +15007,7 @@
         <v>0.2069174561332703</v>
       </c>
       <c r="H481" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15027,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15053,7 +15059,7 @@
         <v>0.4752334335783372</v>
       </c>
       <c r="H483" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15079,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15105,7 +15111,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15131,7 +15137,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15157,7 +15163,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15183,7 +15189,7 @@
         <v>0.4978072926054999</v>
       </c>
       <c r="H488" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15209,7 +15215,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15235,7 +15241,7 @@
         <v>0.4639476994952043</v>
       </c>
       <c r="H490" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15261,7 +15267,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15287,7 +15293,7 @@
         <v>0.478921584970792</v>
       </c>
       <c r="H492" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15313,7 +15319,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15339,7 +15345,7 @@
         <v>0.1831215359215634</v>
       </c>
       <c r="H494" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15365,7 +15371,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15391,7 +15397,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15417,7 +15423,7 @@
         <v>0.6275101125852033</v>
       </c>
       <c r="H497" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15443,7 +15449,7 @@
         <v>0.5045670331463042</v>
       </c>
       <c r="H498" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15469,7 +15475,7 @@
         <v>0.2950710267922264</v>
       </c>
       <c r="H499" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15495,7 +15501,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15521,7 +15527,7 @@
         <v>0.4559195411610155</v>
       </c>
       <c r="H501" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15547,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15573,7 +15579,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15599,7 +15605,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15625,7 +15631,7 @@
         <v>0.516013836386785</v>
       </c>
       <c r="H505" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15651,7 +15657,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15677,7 +15683,7 @@
         <v>0.462236171452474</v>
       </c>
       <c r="H507" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15703,7 +15709,7 @@
         <v>0.7456598259921183</v>
       </c>
       <c r="H508" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15729,7 +15735,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15755,7 +15761,7 @@
         <v>0.3532573073452195</v>
       </c>
       <c r="H510" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15781,7 +15787,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15807,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15833,7 +15839,7 @@
         <v>0.1798070557178069</v>
       </c>
       <c r="H513" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15859,7 +15865,7 @@
         <v>0.473447195088708</v>
       </c>
       <c r="H514" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15885,7 +15891,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15911,7 +15917,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15937,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15963,7 +15969,7 @@
         <v>0.8204384144051942</v>
       </c>
       <c r="H518" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15989,7 +15995,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16015,7 +16021,7 @@
         <v>0.4195530669078708</v>
       </c>
       <c r="H520" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16041,7 +16047,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16067,7 +16073,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16093,7 +16099,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16119,7 +16125,7 @@
         <v>0.2764144596889772</v>
       </c>
       <c r="H524" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16145,7 +16151,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16171,7 +16177,7 @@
         <v>0.4749683932757557</v>
       </c>
       <c r="H526" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16197,7 +16203,7 @@
         <v>0.4652361476393417</v>
       </c>
       <c r="H527" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16223,7 +16229,7 @@
         <v>0.4173692271411316</v>
       </c>
       <c r="H528" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16249,7 +16255,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16275,7 +16281,7 @@
         <v>0.4698999999999999</v>
       </c>
       <c r="H530" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16301,7 +16307,7 @@
         <v>0.5113</v>
       </c>
       <c r="H531" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16327,7 +16333,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16353,7 +16359,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16379,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16405,7 +16411,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16431,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16457,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16483,7 +16489,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16509,7 +16515,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16535,7 +16541,7 @@
         <v>0.5608</v>
       </c>
       <c r="H540" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16561,7 +16567,7 @@
         <v>0.6167</v>
       </c>
       <c r="H541" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16587,7 +16593,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16613,7 +16619,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16639,7 +16645,7 @@
         <v>1</v>
       </c>
       <c r="H544" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16665,7 +16671,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16691,7 +16697,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16717,7 +16723,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16743,7 +16749,7 @@
         <v>0.7048000000000001</v>
       </c>
       <c r="H548" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16769,7 +16775,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16795,7 +16801,7 @@
         <v>1</v>
       </c>
       <c r="H550" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16821,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16847,7 +16853,7 @@
         <v>1</v>
       </c>
       <c r="H552" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16873,7 +16879,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16899,7 +16905,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16925,7 +16931,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16951,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16977,7 +16983,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17003,7 +17009,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17029,7 +17035,7 @@
         <v>1</v>
       </c>
       <c r="H559" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17055,7 +17061,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17081,7 +17087,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17107,7 +17113,7 @@
         <v>1</v>
       </c>
       <c r="H562" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17133,7 +17139,7 @@
         <v>1</v>
       </c>
       <c r="H563" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17143,9 +17149,15 @@
       <c r="B564" t="s">
         <v>569</v>
       </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
       <c r="D564">
         <v>1</v>
       </c>
+      <c r="E564">
+        <v>1</v>
+      </c>
       <c r="F564">
         <v>0</v>
       </c>
@@ -17153,7 +17165,53 @@
         <v>1</v>
       </c>
       <c r="H564" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>570</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>1</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <v>1</v>
+      </c>
+      <c r="H565" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
         <v>571</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="F566">
+        <v>0</v>
+      </c>
+      <c r="G566">
+        <v>1</v>
+      </c>
+      <c r="H566" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="716">
   <si>
     <t>date</t>
   </si>
@@ -1730,6 +1730,24 @@
   </si>
   <si>
     <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2501,7 +2519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H566"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2553,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2579,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2605,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2631,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2657,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2683,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2709,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2735,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2761,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2787,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2813,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2839,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2865,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2891,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2917,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2943,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2969,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2995,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3021,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3047,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3073,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3099,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3125,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3151,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3177,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3203,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3229,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3255,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3281,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3307,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3333,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3359,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3385,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3411,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3437,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3463,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3489,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3515,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3541,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3567,7 +3585,7 @@
         <v>0.6652095861188768</v>
       </c>
       <c r="H41" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3593,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3619,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3645,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3671,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3697,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3723,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3749,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3775,7 +3793,7 @@
         <v>0.4222566633594932</v>
       </c>
       <c r="H49" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3801,7 +3819,7 @@
         <v>0.3440070648646488</v>
       </c>
       <c r="H50" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3827,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3853,7 +3871,7 @@
         <v>0.8523116440983681</v>
       </c>
       <c r="H52" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3879,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3905,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3931,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3957,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3983,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4009,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4035,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4061,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4087,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4113,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4139,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4165,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4191,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4217,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4243,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4269,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4295,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4321,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4347,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4373,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4399,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4425,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4451,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4477,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4503,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4529,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4555,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4581,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4607,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4633,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4659,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4685,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4711,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4737,7 +4755,7 @@
         <v>0.4179768592232786</v>
       </c>
       <c r="H86" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4763,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4789,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4815,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4841,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4867,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4893,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4919,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4945,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4971,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4997,7 +5015,7 @@
         <v>0.1140623709156511</v>
       </c>
       <c r="H96" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5023,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5049,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5075,7 +5093,7 @@
         <v>0.8293690678030022</v>
       </c>
       <c r="H99" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5101,7 +5119,7 @@
         <v>0.2356985566211993</v>
       </c>
       <c r="H100" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5127,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5153,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5179,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5205,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5231,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5257,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5283,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5309,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5335,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5361,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5387,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5413,7 +5431,7 @@
         <v>0.3082366448627037</v>
       </c>
       <c r="H112" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5439,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5465,7 +5483,7 @@
         <v>0.4161611916204381</v>
       </c>
       <c r="H114" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5491,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5517,7 +5535,7 @@
         <v>0.48338117245219</v>
       </c>
       <c r="H116" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5543,7 +5561,7 @@
         <v>0.7049284912729519</v>
       </c>
       <c r="H117" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5569,7 +5587,7 @@
         <v>0.7244285956328683</v>
       </c>
       <c r="H118" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5595,7 +5613,7 @@
         <v>0.6609704165283956</v>
       </c>
       <c r="H119" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5621,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5647,7 +5665,7 @@
         <v>0.599413193990422</v>
       </c>
       <c r="H121" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5673,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5699,7 +5717,7 @@
         <v>0.7424401441936317</v>
       </c>
       <c r="H123" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5725,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5751,7 +5769,7 @@
         <v>0.6384608020844242</v>
       </c>
       <c r="H125" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5777,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5803,7 +5821,7 @@
         <v>0.5253817779376445</v>
       </c>
       <c r="H127" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5829,7 +5847,7 @@
         <v>0.4579419670903924</v>
       </c>
       <c r="H128" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5855,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5881,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5907,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5933,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5959,7 +5977,7 @@
         <v>0.5403720175322594</v>
       </c>
       <c r="H133" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5985,7 +6003,7 @@
         <v>0.5377406223669856</v>
       </c>
       <c r="H134" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6011,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6037,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6063,7 +6081,7 @@
         <v>0.8481029371136733</v>
       </c>
       <c r="H137" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6089,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6115,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6141,7 +6159,7 @@
         <v>0.8896955436959773</v>
       </c>
       <c r="H140" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6167,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6193,7 +6211,7 @@
         <v>0.8955042259693191</v>
       </c>
       <c r="H142" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6219,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6245,7 +6263,7 @@
         <v>0.5383249406265662</v>
       </c>
       <c r="H144" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6271,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6297,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6323,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6349,7 +6367,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6375,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6401,7 +6419,7 @@
         <v>0.4330640552851407</v>
       </c>
       <c r="H150" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6427,7 +6445,7 @@
         <v>0.4479995596700869</v>
       </c>
       <c r="H151" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6453,7 +6471,7 @@
         <v>0.3962385485756822</v>
       </c>
       <c r="H152" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6479,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6505,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6531,7 +6549,7 @@
         <v>0.3812240410545433</v>
       </c>
       <c r="H155" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6557,7 +6575,7 @@
         <v>0.9612505170178242</v>
       </c>
       <c r="H156" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6583,7 +6601,7 @@
         <v>0.9931495088507237</v>
       </c>
       <c r="H157" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6609,7 +6627,7 @@
         <v>0.4014855998279252</v>
       </c>
       <c r="H158" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6635,7 +6653,7 @@
         <v>0.357014503569605</v>
       </c>
       <c r="H159" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6661,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6687,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6713,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6739,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6765,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6791,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6817,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6843,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6869,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6895,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6921,7 +6939,7 @@
         <v>0.4669644694328677</v>
       </c>
       <c r="H170" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6947,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6973,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6999,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7025,7 +7043,7 @@
         <v>0.369760062355653</v>
       </c>
       <c r="H174" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7051,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7077,7 +7095,7 @@
         <v>0.3803214713243249</v>
       </c>
       <c r="H176" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7103,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7129,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7155,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7181,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7207,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7233,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7259,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7285,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7311,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7337,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7363,7 +7381,7 @@
         <v>0.4196524634891488</v>
       </c>
       <c r="H187" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7389,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7415,7 +7433,7 @@
         <v>0.3711118634882204</v>
       </c>
       <c r="H189" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7441,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7467,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7493,7 +7511,7 @@
         <v>0.3543990793245781</v>
       </c>
       <c r="H192" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7519,7 +7537,7 @@
         <v>0.4445849258112983</v>
       </c>
       <c r="H193" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7545,7 +7563,7 @@
         <v>0.3107578981236278</v>
       </c>
       <c r="H194" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7571,7 +7589,7 @@
         <v>0.9122767935971949</v>
       </c>
       <c r="H195" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7597,7 +7615,7 @@
         <v>0.278330358706896</v>
       </c>
       <c r="H196" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7623,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7649,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7675,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7701,7 +7719,7 @@
         <v>0.2423882114940517</v>
       </c>
       <c r="H200" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7727,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7753,7 +7771,7 @@
         <v>0.2649264638711551</v>
       </c>
       <c r="H202" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7779,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7805,7 +7823,7 @@
         <v>0.1541600795562838</v>
       </c>
       <c r="H204" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7831,7 +7849,7 @@
         <v>0.2814039318302521</v>
       </c>
       <c r="H205" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7857,7 +7875,7 @@
         <v>0.2383227719999503</v>
       </c>
       <c r="H206" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7883,7 +7901,7 @@
         <v>0.2118041217404628</v>
       </c>
       <c r="H207" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7909,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7935,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7961,7 +7979,7 @@
         <v>0.2887852613707825</v>
       </c>
       <c r="H210" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7987,7 +8005,7 @@
         <v>0.2971863604950572</v>
       </c>
       <c r="H211" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8013,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8039,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8065,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8091,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8117,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8143,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8169,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8195,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8221,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8247,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8273,7 +8291,7 @@
         <v>0.7949641634474602</v>
       </c>
       <c r="H222" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8299,7 +8317,7 @@
         <v>0.3522392764960742</v>
       </c>
       <c r="H223" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8325,7 +8343,7 @@
         <v>0.2642901094249301</v>
       </c>
       <c r="H224" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8351,7 +8369,7 @@
         <v>0.106840158616674</v>
       </c>
       <c r="H225" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8377,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8403,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8429,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8455,7 +8473,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8481,7 +8499,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8507,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8533,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8559,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8585,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8611,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8637,7 +8655,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8663,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8689,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8715,7 +8733,7 @@
         <v>0.8415967808471801</v>
       </c>
       <c r="H239" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8741,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8767,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8793,7 +8811,7 @@
         <v>0.9647890982341863</v>
       </c>
       <c r="H242" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8819,7 +8837,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8845,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8871,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8897,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8923,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8949,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8975,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9001,7 +9019,7 @@
         <v>0.9997181797409398</v>
       </c>
       <c r="H250" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9027,7 +9045,7 @@
         <v>0.4931226748251689</v>
       </c>
       <c r="H251" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9053,7 +9071,7 @@
         <v>0.5315358428587562</v>
       </c>
       <c r="H252" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9079,7 +9097,7 @@
         <v>0.343803338192062</v>
       </c>
       <c r="H253" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9105,7 +9123,7 @@
         <v>0.5332753000129904</v>
       </c>
       <c r="H254" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9131,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9157,7 +9175,7 @@
         <v>0.6311181946878182</v>
       </c>
       <c r="H256" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9183,7 +9201,7 @@
         <v>0.4410547254046209</v>
       </c>
       <c r="H257" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9209,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9235,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9261,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9287,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9313,7 +9331,7 @@
         <v>0.2104246223539617</v>
       </c>
       <c r="H262" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9339,7 +9357,7 @@
         <v>0.4319808249175842</v>
       </c>
       <c r="H263" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9365,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9391,7 +9409,7 @@
         <v>0.8250228427032021</v>
       </c>
       <c r="H265" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9417,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9443,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9469,7 +9487,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9495,7 +9513,7 @@
         <v>0.4823712957831672</v>
       </c>
       <c r="H269" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9521,7 +9539,7 @@
         <v>0.5013651840847415</v>
       </c>
       <c r="H270" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9547,7 +9565,7 @@
         <v>0.5259010732144902</v>
       </c>
       <c r="H271" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9573,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9599,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9625,7 +9643,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9651,7 +9669,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9677,7 +9695,7 @@
         <v>0.5535016427540128</v>
       </c>
       <c r="H276" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9703,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9729,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9755,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9781,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9807,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9833,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9859,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9885,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9911,7 +9929,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9937,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9963,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9989,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10015,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10041,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10067,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10093,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10119,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10145,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10171,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10197,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10223,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10249,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10275,7 +10293,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10301,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10327,7 +10345,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10353,7 +10371,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10379,7 +10397,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10405,7 +10423,7 @@
         <v>0.3376314558978491</v>
       </c>
       <c r="H304" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10431,7 +10449,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10457,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10483,7 +10501,7 @@
         <v>0.1764760910484507</v>
       </c>
       <c r="H307" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10509,7 +10527,7 @@
         <v>0.2811629796273197</v>
       </c>
       <c r="H308" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10535,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10561,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10587,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10613,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10639,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10665,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10691,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10717,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10743,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10769,7 +10787,7 @@
         <v>1</v>
       </c>
       <c r="H318" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10795,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10821,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10847,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10873,7 +10891,7 @@
         <v>0.6413358221217301</v>
       </c>
       <c r="H322" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10899,7 +10917,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10925,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10951,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10977,7 +10995,7 @@
         <v>0.8846406422673616</v>
       </c>
       <c r="H326" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11003,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11029,7 +11047,7 @@
         <v>0.3144324559994279</v>
       </c>
       <c r="H328" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11055,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11081,7 +11099,7 @@
         <v>0.05571844083068698</v>
       </c>
       <c r="H330" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11107,7 +11125,7 @@
         <v>0.9337348607178408</v>
       </c>
       <c r="H331" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11133,7 +11151,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11159,7 +11177,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11185,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11211,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11237,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11263,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11289,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11315,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11341,7 +11359,7 @@
         <v>0.5945790081699517</v>
       </c>
       <c r="H340" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11367,7 +11385,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11393,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11419,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11445,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11471,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11497,7 +11515,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11523,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11549,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11575,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11601,7 +11619,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11627,7 +11645,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11653,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11679,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11705,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11731,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11757,7 +11775,7 @@
         <v>0.3717170708755477</v>
       </c>
       <c r="H356" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11783,7 +11801,7 @@
         <v>0.4989016217280365</v>
       </c>
       <c r="H357" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11809,7 +11827,7 @@
         <v>0.5706375727459472</v>
       </c>
       <c r="H358" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11835,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11861,7 +11879,7 @@
         <v>0.4911845609131484</v>
       </c>
       <c r="H360" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11887,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11913,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11939,7 +11957,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11965,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11991,7 +12009,7 @@
         <v>0.3447081393108978</v>
       </c>
       <c r="H365" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12017,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12043,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12069,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12095,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12121,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12147,7 +12165,7 @@
         <v>0.1217574971237919</v>
       </c>
       <c r="H371" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12173,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12199,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12225,7 +12243,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12251,7 +12269,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12277,7 +12295,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12303,7 +12321,7 @@
         <v>0.1203938945679383</v>
       </c>
       <c r="H377" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12329,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12355,7 +12373,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12381,7 +12399,7 @@
         <v>0.358524156083476</v>
       </c>
       <c r="H380" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12407,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12433,7 +12451,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12459,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12485,7 +12503,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12511,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12537,7 +12555,7 @@
         <v>0.6416766170477569</v>
       </c>
       <c r="H386" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12563,7 +12581,7 @@
         <v>0.3977750314809759</v>
       </c>
       <c r="H387" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12589,7 +12607,7 @@
         <v>0.3158360328059265</v>
       </c>
       <c r="H388" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12615,7 +12633,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12641,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12667,7 +12685,7 @@
         <v>0.3260262445464655</v>
       </c>
       <c r="H391" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12693,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12719,7 +12737,7 @@
         <v>0.5726145879495009</v>
       </c>
       <c r="H393" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12745,7 +12763,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12771,7 +12789,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12797,7 +12815,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12823,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12849,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12875,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12901,7 +12919,7 @@
         <v>0.8133198567320822</v>
       </c>
       <c r="H400" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12927,7 +12945,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12953,7 +12971,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12979,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13005,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13031,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13057,7 +13075,7 @@
         <v>0.6298940484709741</v>
       </c>
       <c r="H406" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13083,7 +13101,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13109,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13135,7 +13153,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13161,7 +13179,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13187,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13213,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13239,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13265,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13291,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13317,7 +13335,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13343,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13369,7 +13387,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13395,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13421,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13447,7 +13465,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13473,7 +13491,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13499,7 +13517,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13525,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13551,7 +13569,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13577,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13603,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13629,7 +13647,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13655,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13681,7 +13699,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13707,7 +13725,7 @@
         <v>0.5619881121198708</v>
       </c>
       <c r="H431" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13733,7 +13751,7 @@
         <v>0.6587745533122668</v>
       </c>
       <c r="H432" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13759,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13785,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13811,7 +13829,7 @@
         <v>0.8228669086505156</v>
       </c>
       <c r="H435" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13837,7 +13855,7 @@
         <v>0.6713954248795634</v>
       </c>
       <c r="H436" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13863,7 +13881,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13889,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13915,7 +13933,7 @@
         <v>0.4219056650764679</v>
       </c>
       <c r="H439" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13941,7 +13959,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13967,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13993,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14019,7 +14037,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14045,7 +14063,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14071,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14097,7 +14115,7 @@
         <v>0.2603832727848864</v>
       </c>
       <c r="H446" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14123,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14149,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14175,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14201,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14227,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14253,7 +14271,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14279,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14305,7 +14323,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14331,7 +14349,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14357,7 +14375,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14383,7 +14401,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14409,7 +14427,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14435,7 +14453,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14461,7 +14479,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14487,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14513,7 +14531,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14539,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14565,7 +14583,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14591,7 +14609,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14617,7 +14635,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14643,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14669,7 +14687,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14695,7 +14713,7 @@
         <v>0.4689592796249654</v>
       </c>
       <c r="H469" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14721,7 +14739,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14747,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14773,7 +14791,7 @@
         <v>0.7010813448510317</v>
       </c>
       <c r="H472" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14799,7 +14817,7 @@
         <v>0.6911690110600966</v>
       </c>
       <c r="H473" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14825,7 +14843,7 @@
         <v>0.1270575830564206</v>
       </c>
       <c r="H474" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14851,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14877,7 +14895,7 @@
         <v>0.5600077092249968</v>
       </c>
       <c r="H476" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14903,7 +14921,7 @@
         <v>0.6030185016589187</v>
       </c>
       <c r="H477" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14929,7 +14947,7 @@
         <v>0.5718632809526268</v>
       </c>
       <c r="H478" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14955,7 +14973,7 @@
         <v>0.6163277572292777</v>
       </c>
       <c r="H479" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14981,7 +14999,7 @@
         <v>0.2327463766606628</v>
       </c>
       <c r="H480" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15007,7 +15025,7 @@
         <v>0.2069174561332703</v>
       </c>
       <c r="H481" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15033,7 +15051,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15059,7 +15077,7 @@
         <v>0.4752334335783372</v>
       </c>
       <c r="H483" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15085,7 +15103,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15111,7 +15129,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15137,7 +15155,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15163,7 +15181,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15189,7 +15207,7 @@
         <v>0.4978072926054999</v>
       </c>
       <c r="H488" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15215,7 +15233,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15241,7 +15259,7 @@
         <v>0.4639476994952043</v>
       </c>
       <c r="H490" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15267,7 +15285,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15293,7 +15311,7 @@
         <v>0.478921584970792</v>
       </c>
       <c r="H492" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15319,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15345,7 +15363,7 @@
         <v>0.1831215359215634</v>
       </c>
       <c r="H494" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15371,7 +15389,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15397,7 +15415,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15423,7 +15441,7 @@
         <v>0.6275101125852033</v>
       </c>
       <c r="H497" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15449,7 +15467,7 @@
         <v>0.5045670331463042</v>
       </c>
       <c r="H498" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15475,7 +15493,7 @@
         <v>0.2950710267922264</v>
       </c>
       <c r="H499" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15501,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15527,7 +15545,7 @@
         <v>0.4559195411610155</v>
       </c>
       <c r="H501" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15553,7 +15571,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15579,7 +15597,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15605,7 +15623,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15631,7 +15649,7 @@
         <v>0.516013836386785</v>
       </c>
       <c r="H505" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15657,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15683,7 +15701,7 @@
         <v>0.462236171452474</v>
       </c>
       <c r="H507" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15709,7 +15727,7 @@
         <v>0.7456598259921183</v>
       </c>
       <c r="H508" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15735,7 +15753,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15761,7 +15779,7 @@
         <v>0.3532573073452195</v>
       </c>
       <c r="H510" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15787,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15813,7 +15831,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15839,7 +15857,7 @@
         <v>0.1798070557178069</v>
       </c>
       <c r="H513" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15865,7 +15883,7 @@
         <v>0.473447195088708</v>
       </c>
       <c r="H514" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15891,7 +15909,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15917,7 +15935,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15943,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15969,7 +15987,7 @@
         <v>0.8204384144051942</v>
       </c>
       <c r="H518" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15995,7 +16013,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16021,7 +16039,7 @@
         <v>0.4195530669078708</v>
       </c>
       <c r="H520" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16047,7 +16065,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16073,7 +16091,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16099,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16125,7 +16143,7 @@
         <v>0.2764144596889772</v>
       </c>
       <c r="H524" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16151,7 +16169,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16177,7 +16195,7 @@
         <v>0.4749683932757557</v>
       </c>
       <c r="H526" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16203,7 +16221,7 @@
         <v>0.4652361476393417</v>
       </c>
       <c r="H527" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16229,7 +16247,7 @@
         <v>0.4173692271411316</v>
       </c>
       <c r="H528" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16255,7 +16273,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16281,7 +16299,7 @@
         <v>0.4698999999999999</v>
       </c>
       <c r="H530" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16307,7 +16325,7 @@
         <v>0.5113</v>
       </c>
       <c r="H531" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16333,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16359,7 +16377,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16385,7 +16403,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16411,7 +16429,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16437,7 +16455,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16463,7 +16481,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16489,7 +16507,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16515,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16541,7 +16559,7 @@
         <v>0.5608</v>
       </c>
       <c r="H540" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16567,7 +16585,7 @@
         <v>0.6167</v>
       </c>
       <c r="H541" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16593,7 +16611,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16619,7 +16637,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16645,7 +16663,7 @@
         <v>1</v>
       </c>
       <c r="H544" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16671,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16697,7 +16715,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16723,7 +16741,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16749,7 +16767,7 @@
         <v>0.7048000000000001</v>
       </c>
       <c r="H548" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16775,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16801,7 +16819,7 @@
         <v>1</v>
       </c>
       <c r="H550" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16827,7 +16845,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16853,7 +16871,7 @@
         <v>1</v>
       </c>
       <c r="H552" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16879,7 +16897,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16905,7 +16923,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16931,7 +16949,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16957,7 +16975,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16983,7 +17001,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17009,7 +17027,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17035,7 +17053,7 @@
         <v>1</v>
       </c>
       <c r="H559" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17061,7 +17079,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17087,7 +17105,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17113,7 +17131,7 @@
         <v>1</v>
       </c>
       <c r="H562" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17139,7 +17157,7 @@
         <v>1</v>
       </c>
       <c r="H563" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17165,7 +17183,7 @@
         <v>1</v>
       </c>
       <c r="H564" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17191,7 +17209,7 @@
         <v>1</v>
       </c>
       <c r="H565" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17201,9 +17219,15 @@
       <c r="B566" t="s">
         <v>571</v>
       </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
       <c r="D566">
         <v>1</v>
       </c>
+      <c r="E566">
+        <v>0</v>
+      </c>
       <c r="F566">
         <v>0</v>
       </c>
@@ -17211,7 +17235,157 @@
         <v>1</v>
       </c>
       <c r="H566" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>572</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+      <c r="E567">
+        <v>1</v>
+      </c>
+      <c r="F567">
+        <v>0</v>
+      </c>
+      <c r="G567">
+        <v>1</v>
+      </c>
+      <c r="H567" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
         <v>573</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>1</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+      <c r="G568">
+        <v>1</v>
+      </c>
+      <c r="H568" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>574</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>1</v>
+      </c>
+      <c r="H569" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>575</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>0</v>
+      </c>
+      <c r="E570">
+        <v>1</v>
+      </c>
+      <c r="F570">
+        <v>1</v>
+      </c>
+      <c r="G570">
+        <v>0</v>
+      </c>
+      <c r="H570" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>576</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>0</v>
+      </c>
+      <c r="E571">
+        <v>0</v>
+      </c>
+      <c r="F571">
+        <v>1</v>
+      </c>
+      <c r="G571">
+        <v>0</v>
+      </c>
+      <c r="H571" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>577</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+      <c r="F572">
+        <v>0</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+      <c r="H572" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVMO_v2.xlsx
+++ b/firebase_data_from_spyEnsembleVMO_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="718">
   <si>
     <t>date</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2519,7 +2525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2571,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2597,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2623,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2649,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2675,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2701,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2727,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2753,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2779,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2805,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2831,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2857,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2883,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2909,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2935,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2961,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2987,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3013,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3039,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3065,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3091,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3117,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3143,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3169,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3195,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3221,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3247,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3273,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3299,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3325,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3351,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3377,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3403,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3429,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3455,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3481,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3507,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3533,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3559,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3585,7 +3591,7 @@
         <v>0.6652095861188768</v>
       </c>
       <c r="H41" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3611,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3637,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3663,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3689,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3715,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3741,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3767,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3793,7 +3799,7 @@
         <v>0.4222566633594932</v>
       </c>
       <c r="H49" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3819,7 +3825,7 @@
         <v>0.3440070648646488</v>
       </c>
       <c r="H50" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3845,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3871,7 +3877,7 @@
         <v>0.8523116440983681</v>
       </c>
       <c r="H52" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3897,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3923,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3949,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3975,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4001,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4027,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4053,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4079,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4105,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4131,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4157,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4183,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4209,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4235,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4261,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4287,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4313,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4339,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4365,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4391,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4417,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4443,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4469,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4495,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4521,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4547,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4573,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4599,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4625,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4651,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4677,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4703,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4729,7 +4735,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4755,7 +4761,7 @@
         <v>0.4179768592232786</v>
       </c>
       <c r="H86" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4781,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4807,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4833,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4859,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4885,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4911,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4937,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4963,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4989,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5015,7 +5021,7 @@
         <v>0.1140623709156511</v>
       </c>
       <c r="H96" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5041,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5067,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5093,7 +5099,7 @@
         <v>0.8293690678030022</v>
       </c>
       <c r="H99" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5119,7 +5125,7 @@
         <v>0.2356985566211993</v>
       </c>
       <c r="H100" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5145,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5171,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5197,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5223,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5249,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5275,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5301,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5327,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5353,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5379,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5405,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5431,7 +5437,7 @@
         <v>0.3082366448627037</v>
       </c>
       <c r="H112" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5457,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5483,7 +5489,7 @@
         <v>0.4161611916204381</v>
       </c>
       <c r="H114" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5509,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5535,7 +5541,7 @@
         <v>0.48338117245219</v>
       </c>
       <c r="H116" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5561,7 +5567,7 @@
         <v>0.7049284912729519</v>
       </c>
       <c r="H117" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5587,7 +5593,7 @@
         <v>0.7244285956328683</v>
       </c>
       <c r="H118" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5613,7 +5619,7 @@
         <v>0.6609704165283956</v>
       </c>
       <c r="H119" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5639,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5665,7 +5671,7 @@
         <v>0.599413193990422</v>
       </c>
       <c r="H121" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5691,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5717,7 +5723,7 @@
         <v>0.7424401441936317</v>
       </c>
       <c r="H123" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5743,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5769,7 +5775,7 @@
         <v>0.6384608020844242</v>
       </c>
       <c r="H125" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5795,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5821,7 +5827,7 @@
         <v>0.5253817779376445</v>
       </c>
       <c r="H127" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5847,7 +5853,7 @@
         <v>0.4579419670903924</v>
       </c>
       <c r="H128" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5873,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5899,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5925,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5951,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5977,7 +5983,7 @@
         <v>0.5403720175322594</v>
       </c>
       <c r="H133" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6003,7 +6009,7 @@
         <v>0.5377406223669856</v>
       </c>
       <c r="H134" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6029,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6055,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6081,7 +6087,7 @@
         <v>0.8481029371136733</v>
       </c>
       <c r="H137" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6107,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6133,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6159,7 +6165,7 @@
         <v>0.8896955436959773</v>
       </c>
       <c r="H140" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6185,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6211,7 +6217,7 @@
         <v>0.8955042259693191</v>
       </c>
       <c r="H142" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6237,7 +6243,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6263,7 +6269,7 @@
         <v>0.5383249406265662</v>
       </c>
       <c r="H144" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6289,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6315,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6341,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6367,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6393,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6419,7 +6425,7 @@
         <v>0.4330640552851407</v>
       </c>
       <c r="H150" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6445,7 +6451,7 @@
         <v>0.4479995596700869</v>
       </c>
       <c r="H151" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6471,7 +6477,7 @@
         <v>0.3962385485756822</v>
       </c>
       <c r="H152" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6497,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6523,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6549,7 +6555,7 @@
         <v>0.3812240410545433</v>
       </c>
       <c r="H155" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6575,7 +6581,7 @@
         <v>0.9612505170178242</v>
       </c>
       <c r="H156" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6601,7 +6607,7 @@
         <v>0.9931495088507237</v>
       </c>
       <c r="H157" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6627,7 +6633,7 @@
         <v>0.4014855998279252</v>
       </c>
       <c r="H158" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6653,7 +6659,7 @@
         <v>0.357014503569605</v>
       </c>
       <c r="H159" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6679,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6705,7 +6711,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6731,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6757,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6783,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6809,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6835,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6861,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6887,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6913,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6939,7 +6945,7 @@
         <v>0.4669644694328677</v>
       </c>
       <c r="H170" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6965,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6991,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7017,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7043,7 +7049,7 @@
         <v>0.369760062355653</v>
       </c>
       <c r="H174" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7069,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7095,7 +7101,7 @@
         <v>0.3803214713243249</v>
       </c>
       <c r="H176" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7121,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7147,7 +7153,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7173,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7199,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7225,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7251,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7277,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7303,7 +7309,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7329,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7355,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7381,7 +7387,7 @@
         <v>0.4196524634891488</v>
       </c>
       <c r="H187" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7407,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7433,7 +7439,7 @@
         <v>0.3711118634882204</v>
       </c>
       <c r="H189" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7459,7 +7465,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7485,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7511,7 +7517,7 @@
         <v>0.3543990793245781</v>
       </c>
       <c r="H192" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7537,7 +7543,7 @@
         <v>0.4445849258112983</v>
       </c>
       <c r="H193" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7563,7 +7569,7 @@
         <v>0.3107578981236278</v>
       </c>
       <c r="H194" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7589,7 +7595,7 @@
         <v>0.9122767935971949</v>
       </c>
       <c r="H195" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7615,7 +7621,7 @@
         <v>0.278330358706896</v>
       </c>
       <c r="H196" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7641,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7667,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7693,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7719,7 +7725,7 @@
         <v>0.2423882114940517</v>
       </c>
       <c r="H200" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7745,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7771,7 +7777,7 @@
         <v>0.2649264638711551</v>
       </c>
       <c r="H202" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7797,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7823,7 +7829,7 @@
         <v>0.1541600795562838</v>
       </c>
       <c r="H204" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7849,7 +7855,7 @@
         <v>0.2814039318302521</v>
       </c>
       <c r="H205" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7875,7 +7881,7 @@
         <v>0.2383227719999503</v>
       </c>
       <c r="H206" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7901,7 +7907,7 @@
         <v>0.2118041217404628</v>
       </c>
       <c r="H207" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7927,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7953,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7979,7 +7985,7 @@
         <v>0.2887852613707825</v>
       </c>
       <c r="H210" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8005,7 +8011,7 @@
         <v>0.2971863604950572</v>
       </c>
       <c r="H211" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8031,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8057,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8083,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8109,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8135,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8161,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8187,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8213,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8239,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8265,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8291,7 +8297,7 @@
         <v>0.7949641634474602</v>
       </c>
       <c r="H222" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8317,7 +8323,7 @@
         <v>0.3522392764960742</v>
       </c>
       <c r="H223" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8343,7 +8349,7 @@
         <v>0.2642901094249301</v>
       </c>
       <c r="H224" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8369,7 +8375,7 @@
         <v>0.106840158616674</v>
       </c>
       <c r="H225" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8395,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8421,7 +8427,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8447,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8473,7 +8479,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8499,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8525,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8551,7 +8557,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8577,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8603,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8629,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8655,7 +8661,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8681,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8707,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8733,7 +8739,7 @@
         <v>0.8415967808471801</v>
       </c>
       <c r="H239" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8759,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8785,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8811,7 +8817,7 @@
         <v>0.9647890982341863</v>
       </c>
       <c r="H242" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8837,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8863,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8889,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8915,7 +8921,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8941,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8967,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8993,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9019,7 +9025,7 @@
         <v>0.9997181797409398</v>
       </c>
       <c r="H250" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9045,7 +9051,7 @@
         <v>0.4931226748251689</v>
       </c>
       <c r="H251" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9071,7 +9077,7 @@
         <v>0.5315358428587562</v>
       </c>
       <c r="H252" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9097,7 +9103,7 @@
         <v>0.343803338192062</v>
       </c>
       <c r="H253" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9123,7 +9129,7 @@
         <v>0.5332753000129904</v>
       </c>
       <c r="H254" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9149,7 +9155,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9175,7 +9181,7 @@
         <v>0.6311181946878182</v>
       </c>
       <c r="H256" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9201,7 +9207,7 @@
         <v>0.4410547254046209</v>
       </c>
       <c r="H257" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9227,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9253,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9279,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9305,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9331,7 +9337,7 @@
         <v>0.2104246223539617</v>
       </c>
       <c r="H262" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9357,7 +9363,7 @@
         <v>0.4319808249175842</v>
       </c>
       <c r="H263" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9383,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9409,7 +9415,7 @@
         <v>0.8250228427032021</v>
       </c>
       <c r="H265" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9435,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9461,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9487,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9513,7 +9519,7 @@
         <v>0.4823712957831672</v>
       </c>
       <c r="H269" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9539,7 +9545,7 @@
         <v>0.5013651840847415</v>
       </c>
       <c r="H270" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9565,7 +9571,7 @@
         <v>0.5259010732144902</v>
       </c>
       <c r="H271" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9591,7 +9597,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9617,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9643,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9669,7 +9675,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9695,7 +9701,7 @@
         <v>0.5535016427540128</v>
       </c>
       <c r="H276" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9721,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9747,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9773,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9799,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9825,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9851,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9877,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9903,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9929,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9955,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9981,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10007,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10033,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10059,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10085,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10111,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10137,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10163,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10189,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10215,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10241,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10267,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10293,7 +10299,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10319,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10345,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10371,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10397,7 +10403,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10423,7 +10429,7 @@
         <v>0.3376314558978491</v>
       </c>
       <c r="H304" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10449,7 +10455,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10475,7 +10481,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10501,7 +10507,7 @@
         <v>0.1764760910484507</v>
       </c>
       <c r="H307" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10527,7 +10533,7 @@
         <v>0.2811629796273197</v>
       </c>
       <c r="H308" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10553,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10579,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10605,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10631,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10657,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10683,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10709,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10735,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10761,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10787,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="H318" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10813,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10839,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10865,7 +10871,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10891,7 +10897,7 @@
         <v>0.6413358221217301</v>
       </c>
       <c r="H322" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10917,7 +10923,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10943,7 +10949,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10969,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10995,7 +11001,7 @@
         <v>0.8846406422673616</v>
       </c>
       <c r="H326" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11021,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11047,7 +11053,7 @@
         <v>0.3144324559994279</v>
       </c>
       <c r="H328" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11073,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11099,7 +11105,7 @@
         <v>0.05571844083068698</v>
       </c>
       <c r="H330" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11125,7 +11131,7 @@
         <v>0.9337348607178408</v>
       </c>
       <c r="H331" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11151,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11177,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11203,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11229,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11255,7 +11261,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11281,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11307,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11333,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11359,7 +11365,7 @@
         <v>0.5945790081699517</v>
       </c>
       <c r="H340" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11385,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11411,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11437,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11463,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11489,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11515,7 +11521,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11541,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11567,7 +11573,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11593,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11619,7 +11625,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11645,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11671,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11697,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11723,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11749,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11775,7 +11781,7 @@
         <v>0.3717170708755477</v>
       </c>
       <c r="H356" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11801,7 +11807,7 @@
         <v>0.4989016217280365</v>
       </c>
       <c r="H357" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11827,7 +11833,7 @@
         <v>0.5706375727459472</v>
       </c>
       <c r="H358" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11853,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11879,7 +11885,7 @@
         <v>0.4911845609131484</v>
       </c>
       <c r="H360" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11905,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11931,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11957,7 +11963,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11983,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12009,7 +12015,7 @@
         <v>0.3447081393108978</v>
       </c>
       <c r="H365" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12035,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12061,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12087,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12113,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12139,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12165,7 +12171,7 @@
         <v>0.1217574971237919</v>
       </c>
       <c r="H371" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12191,7 +12197,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12217,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12243,7 +12249,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12269,7 +12275,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12295,7 +12301,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12321,7 +12327,7 @@
         <v>0.1203938945679383</v>
       </c>
       <c r="H377" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12347,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12373,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12399,7 +12405,7 @@
         <v>0.358524156083476</v>
       </c>
       <c r="H380" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12425,7 +12431,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12451,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12477,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12503,7 +12509,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12529,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12555,7 +12561,7 @@
         <v>0.6416766170477569</v>
       </c>
       <c r="H386" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12581,7 +12587,7 @@
         <v>0.3977750314809759</v>
       </c>
       <c r="H387" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12607,7 +12613,7 @@
         <v>0.3158360328059265</v>
       </c>
       <c r="H388" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12633,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12659,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12685,7 +12691,7 @@
         <v>0.3260262445464655</v>
       </c>
       <c r="H391" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12711,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12737,7 +12743,7 @@
         <v>0.5726145879495009</v>
       </c>
       <c r="H393" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12763,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12789,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12815,7 +12821,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12841,7 +12847,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12867,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12893,7 +12899,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12919,7 +12925,7 @@
         <v>0.8133198567320822</v>
       </c>
       <c r="H400" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12945,7 +12951,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12971,7 +12977,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12997,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13023,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13049,7 +13055,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13075,7 +13081,7 @@
         <v>0.6298940484709741</v>
       </c>
       <c r="H406" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13101,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13127,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13153,7 +13159,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13179,7 +13185,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13205,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13231,7 +13237,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13257,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13283,7 +13289,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13309,7 +13315,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13335,7 +13341,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13361,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13387,7 +13393,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13413,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13439,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13465,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13491,7 +13497,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13517,7 +13523,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13543,7 +13549,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13569,7 +13575,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13595,7 +13601,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13621,7 +13627,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13647,7 +13653,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13673,7 +13679,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13699,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13725,7 +13731,7 @@
         <v>0.5619881121198708</v>
       </c>
       <c r="H431" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13751,7 +13757,7 @@
         <v>0.6587745533122668</v>
       </c>
       <c r="H432" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13777,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13803,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13829,7 +13835,7 @@
         <v>0.8228669086505156</v>
       </c>
       <c r="H435" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13855,7 +13861,7 @@
         <v>0.6713954248795634</v>
       </c>
       <c r="H436" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13881,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13907,7 +13913,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13933,7 +13939,7 @@
         <v>0.4219056650764679</v>
       </c>
       <c r="H439" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13959,7 +13965,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13985,7 +13991,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14011,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14037,7 +14043,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14063,7 +14069,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14089,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14115,7 +14121,7 @@
         <v>0.2603832727848864</v>
       </c>
       <c r="H446" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14141,7 +14147,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14167,7 +14173,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14193,7 +14199,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14219,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14245,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14271,7 +14277,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14297,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14323,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14349,7 +14355,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14375,7 +14381,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14401,7 +14407,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14427,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14453,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14479,7 +14485,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14505,7 +14511,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14531,7 +14537,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14557,7 +14563,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14583,7 +14589,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14609,7 +14615,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14635,7 +14641,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14661,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14687,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14713,7 +14719,7 @@
         <v>0.4689592796249654</v>
       </c>
       <c r="H469" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14739,7 +14745,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14765,7 +14771,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14791,7 +14797,7 @@
         <v>0.7010813448510317</v>
       </c>
       <c r="H472" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14817,7 +14823,7 @@
         <v>0.6911690110600966</v>
       </c>
       <c r="H473" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14843,7 +14849,7 @@
         <v>0.1270575830564206</v>
       </c>
       <c r="H474" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14869,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14895,7 +14901,7 @@
         <v>0.5600077092249968</v>
       </c>
       <c r="H476" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14921,7 +14927,7 @@
         <v>0.6030185016589187</v>
       </c>
       <c r="H477" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14947,7 +14953,7 @@
         <v>0.5718632809526268</v>
       </c>
       <c r="H478" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14973,7 +14979,7 @@
         <v>0.6163277572292777</v>
       </c>
       <c r="H479" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14999,7 +15005,7 @@
         <v>0.2327463766606628</v>
       </c>
       <c r="H480" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15025,7 +15031,7 @@
         <v>0.2069174561332703</v>
       </c>
       <c r="H481" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15051,7 +15057,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15077,7 +15083,7 @@
         <v>0.4752334335783372</v>
       </c>
       <c r="H483" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15103,7 +15109,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15129,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15155,7 +15161,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15181,7 +15187,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15207,7 +15213,7 @@
         <v>0.4978072926054999</v>
       </c>
       <c r="H488" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15233,7 +15239,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15259,7 +15265,7 @@
         <v>0.4639476994952043</v>
       </c>
       <c r="H490" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15285,7 +15291,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15311,7 +15317,7 @@
         <v>0.478921584970792</v>
       </c>
       <c r="H492" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15337,7 +15343,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15363,7 +15369,7 @@
         <v>0.1831215359215634</v>
       </c>
       <c r="H494" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15389,7 +15395,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15415,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15441,7 +15447,7 @@
         <v>0.6275101125852033</v>
       </c>
       <c r="H497" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15467,7 +15473,7 @@
         <v>0.5045670331463042</v>
       </c>
       <c r="H498" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15493,7 +15499,7 @@
         <v>0.2950710267922264</v>
       </c>
       <c r="H499" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15519,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15545,7 +15551,7 @@
         <v>0.4559195411610155</v>
       </c>
       <c r="H501" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15571,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15597,7 +15603,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15623,7 +15629,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15649,7 +15655,7 @@
         <v>0.516013836386785</v>
       </c>
       <c r="H505" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15675,7 +15681,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15701,7 +15707,7 @@
         <v>0.462236171452474</v>
       </c>
       <c r="H507" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15727,7 +15733,7 @@
         <v>0.7456598259921183</v>
       </c>
       <c r="H508" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15753,7 +15759,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15779,7 +15785,7 @@
         <v>0.3532573073452195</v>
       </c>
       <c r="H510" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15805,7 +15811,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15831,7 +15837,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15857,7 +15863,7 @@
         <v>0.1798070557178069</v>
       </c>
       <c r="H513" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15883,7 +15889,7 @@
         <v>0.473447195088708</v>
       </c>
       <c r="H514" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15909,7 +15915,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15935,7 +15941,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15961,7 +15967,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15987,7 +15993,7 @@
         <v>0.8204384144051942</v>
       </c>
       <c r="H518" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16013,7 +16019,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16039,7 +16045,7 @@
         <v>0.4195530669078708</v>
       </c>
       <c r="H520" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16065,7 +16071,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16091,7 +16097,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16117,7 +16123,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16143,7 +16149,7 @@
         <v>0.2764144596889772</v>
       </c>
       <c r="H524" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16169,7 +16175,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16195,7 +16201,7 @@
         <v>0.4749683932757557</v>
       </c>
       <c r="H526" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16221,7 +16227,7 @@
         <v>0.4652361476393417</v>
       </c>
       <c r="H527" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16247,7 +16253,7 @@
         <v>0.4173692271411316</v>
       </c>
       <c r="H528" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16273,7 +16279,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16299,7 +16305,7 @@
         <v>0.4698999999999999</v>
       </c>
       <c r="H530" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16325,7 +16331,7 @@
         <v>0.5113</v>
       </c>
       <c r="H531" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16351,7 +16357,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16377,7 +16383,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16403,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16429,7 +16435,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16455,7 +16461,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16481,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16507,7 +16513,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16533,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16559,7 +16565,7 @@
         <v>0.5608</v>
       </c>
       <c r="H540" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16585,7 +16591,7 @@
         <v>0.6167</v>
       </c>
       <c r="H541" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16611,7 +16617,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16637,7 +16643,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16663,7 +16669,7 @@
         <v>1</v>
       </c>
       <c r="H544" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16689,7 +16695,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16715,7 +16721,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16741,7 +16747,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16767,7 +16773,7 @@
         <v>0.7048000000000001</v>
       </c>
       <c r="H548" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16793,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16819,7 +16825,7 @@
         <v>1</v>
       </c>
       <c r="H550" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16845,7 +16851,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16871,7 +16877,7 @@
         <v>1</v>
       </c>
       <c r="H552" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16897,7 +16903,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16923,7 +16929,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16949,7 +16955,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16975,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17001,7 +17007,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17027,7 +17033,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17053,7 +17059,7 @@
         <v>1</v>
       </c>
       <c r="H559" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17079,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17105,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17131,7 +17137,7 @@
         <v>1</v>
       </c>
       <c r="H562" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17157,7 +17163,7 @@
         <v>1</v>
       </c>
       <c r="H563" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17183,7 +17189,7 @@
         <v>1</v>
       </c>
       <c r="H564" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17209,7 +17215,7 @@
         <v>1</v>
       </c>
       <c r="H565" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17235,7 +17241,7 @@
         <v>1</v>
       </c>
       <c r="H566" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17261,7 +17267,7 @@
         <v>1</v>
       </c>
       <c r="H567" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17287,7 +17293,7 @@
         <v>1</v>
       </c>
       <c r="H568" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17313,7 +17319,7 @@
         <v>1</v>
       </c>
       <c r="H569" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17339,7 +17345,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17365,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17375,9 +17381,15 @@
       <c r="B572" t="s">
         <v>577</v>
       </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
       <c r="D572">
         <v>1</v>
       </c>
+      <c r="E572">
+        <v>1</v>
+      </c>
       <c r="F572">
         <v>0</v>
       </c>
@@ -17385,7 +17397,53 @@
         <v>1</v>
       </c>
       <c r="H572" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>578</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
         <v>579</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+      <c r="H574" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
